--- a/Mapping/Register and Signal Mapping.xlsx
+++ b/Mapping/Register and Signal Mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="15315" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="15315" windowHeight="10290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="393">
   <si>
     <t>Signal</t>
   </si>
@@ -962,6 +962,243 @@
   </si>
   <si>
     <t>Ter_Store_Haz_Mon,</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Bit Number</t>
+  </si>
+  <si>
+    <t>Signal Type</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_7</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_8</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_In_9</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_In_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_In_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_In_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_In_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_In_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_In_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_7</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_8</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_D_9</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_7</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_8</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_E_9</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_7</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_8</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_L_9</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_D_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_D_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_D_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_D_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_D_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_D_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_E_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_E_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_E_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_E_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_E_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_E_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_L_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_L_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_L_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_L_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_L_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_L_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_A_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_A_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_A_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_A_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_A_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Lock_Ts_A_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_1</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_2</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_3</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_4</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_5</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_6</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_7</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_8</t>
+  </si>
+  <si>
+    <t>Wea_Arm_Seal_Ts_A_9</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2475,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B575E61D-8039-463C-8588-67CBC96687A4}">
-  <dimension ref="A1:K207"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,14 +2723,15 @@
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2507,16 +2745,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -2529,11 +2773,17 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -2546,8 +2796,14 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -2560,8 +2816,14 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -2574,8 +2836,14 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -2588,8 +2856,14 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>224</v>
       </c>
@@ -2602,8 +2876,14 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -2616,8 +2896,14 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -2630,8 +2916,14 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -2644,8 +2936,14 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -2658,8 +2956,14 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -2672,8 +2976,14 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -2686,8 +2996,14 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -2700,8 +3016,14 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -2714,8 +3036,14 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -2728,8 +3056,14 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -2742,8 +3076,14 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2756,8 +3096,14 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -2770,8 +3116,14 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -2784,8 +3136,14 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -2798,8 +3156,14 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -2812,8 +3176,14 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -2826,8 +3196,14 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -2840,8 +3216,14 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -2854,8 +3236,14 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>199</v>
       </c>
@@ -2868,8 +3256,14 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -2882,8 +3276,14 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -2896,8 +3296,14 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -2910,8 +3316,14 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -2924,8 +3336,14 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -2938,8 +3356,14 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -2952,8 +3376,14 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -2966,8 +3396,14 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -2980,8 +3416,14 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -2994,8 +3436,14 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -3008,8 +3456,14 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -3022,8 +3476,14 @@
       <c r="D37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -3036,8 +3496,14 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -3050,8 +3516,14 @@
       <c r="D39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -3064,8 +3536,14 @@
       <c r="D40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -3078,8 +3556,14 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -3092,8 +3576,11 @@
       <c r="D42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -3106,11 +3593,17 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>218</v>
       </c>
@@ -3123,8 +3616,14 @@
       <c r="D44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -3137,8 +3636,14 @@
       <c r="D45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>215</v>
       </c>
@@ -3151,11 +3656,17 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -3168,8 +3679,14 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -3182,8 +3699,14 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -3196,8 +3719,14 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>232</v>
       </c>
@@ -3210,8 +3739,14 @@
       <c r="D50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -3224,8 +3759,14 @@
       <c r="D51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>234</v>
       </c>
@@ -3238,8 +3779,14 @@
       <c r="D52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -3252,8 +3799,17 @@
       <c r="D53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>314</v>
+      </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
@@ -3263,8 +3819,14 @@
       <c r="D54" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>314</v>
+      </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -3274,11 +3836,17 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>317</v>
+      </c>
+      <c r="G55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>314</v>
+      </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
@@ -3288,8 +3856,14 @@
       <c r="D56" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>314</v>
+      </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
@@ -3299,8 +3873,14 @@
       <c r="D57" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -3310,11 +3890,17 @@
       <c r="D58" t="s">
         <v>17</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>317</v>
+      </c>
+      <c r="G58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>314</v>
+      </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
@@ -3324,8 +3910,14 @@
       <c r="D59" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>314</v>
+      </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -3335,8 +3927,14 @@
       <c r="D60" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>314</v>
+      </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
@@ -3346,11 +3944,17 @@
       <c r="D61" t="s">
         <v>18</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>314</v>
+      </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
@@ -3360,8 +3964,14 @@
       <c r="D62" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>314</v>
+      </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
@@ -3371,8 +3981,11 @@
       <c r="D63" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>236</v>
       </c>
@@ -3385,11 +3998,17 @@
       <c r="D64" t="s">
         <v>19</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>317</v>
+      </c>
+      <c r="G64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>237</v>
       </c>
@@ -3402,8 +4021,14 @@
       <c r="D65" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -3416,8 +4041,14 @@
       <c r="D66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>239</v>
       </c>
@@ -3430,8 +4061,14 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>240</v>
       </c>
@@ -3444,8 +4081,14 @@
       <c r="D68" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>241</v>
       </c>
@@ -3458,8 +4101,14 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>242</v>
       </c>
@@ -3472,8 +4121,14 @@
       <c r="D70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>243</v>
       </c>
@@ -3486,8 +4141,14 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>244</v>
       </c>
@@ -3500,8 +4161,14 @@
       <c r="D72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>254</v>
       </c>
@@ -3514,8 +4181,14 @@
       <c r="D73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -3528,8 +4201,14 @@
       <c r="D74" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -3542,8 +4221,14 @@
       <c r="D75" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>257</v>
       </c>
@@ -3556,8 +4241,14 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -3570,8 +4261,14 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>259</v>
       </c>
@@ -3584,8 +4281,14 @@
       <c r="D78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -3598,8 +4301,14 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -3612,8 +4321,14 @@
       <c r="D80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -3626,8 +4341,14 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>246</v>
       </c>
@@ -3640,8 +4361,14 @@
       <c r="D82" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -3654,8 +4381,14 @@
       <c r="D83" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -3668,8 +4401,14 @@
       <c r="D84" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -3682,8 +4421,14 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -3696,8 +4441,14 @@
       <c r="D86" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>251</v>
       </c>
@@ -3710,8 +4461,14 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -3724,8 +4481,14 @@
       <c r="D88" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>253</v>
       </c>
@@ -3738,8 +4501,14 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -3752,8 +4521,14 @@
       <c r="D90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -3766,8 +4541,14 @@
       <c r="D91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>264</v>
       </c>
@@ -3780,8 +4561,14 @@
       <c r="D92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>265</v>
       </c>
@@ -3794,8 +4581,14 @@
       <c r="D93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>266</v>
       </c>
@@ -3808,8 +4601,14 @@
       <c r="D94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>267</v>
       </c>
@@ -3822,8 +4621,14 @@
       <c r="D95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -3836,8 +4641,14 @@
       <c r="D96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>269</v>
       </c>
@@ -3850,8 +4661,14 @@
       <c r="D97" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>270</v>
       </c>
@@ -3864,8 +4681,14 @@
       <c r="D98" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>271</v>
       </c>
@@ -3878,8 +4701,14 @@
       <c r="D99" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>272</v>
       </c>
@@ -3892,8 +4721,14 @@
       <c r="D100" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>273</v>
       </c>
@@ -3906,8 +4741,14 @@
       <c r="D101" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>274</v>
       </c>
@@ -3920,8 +4761,14 @@
       <c r="D102" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -3934,8 +4781,14 @@
       <c r="D103" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>276</v>
       </c>
@@ -3948,8 +4801,14 @@
       <c r="D104" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>277</v>
       </c>
@@ -3962,8 +4821,14 @@
       <c r="D105" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>278</v>
       </c>
@@ -3976,8 +4841,14 @@
       <c r="D106" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>279</v>
       </c>
@@ -3990,8 +4861,14 @@
       <c r="D107" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>280</v>
       </c>
@@ -4004,8 +4881,14 @@
       <c r="D108" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>281</v>
       </c>
@@ -4018,8 +4901,14 @@
       <c r="D109" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>19</v>
+      </c>
+      <c r="F109" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>282</v>
       </c>
@@ -4032,8 +4921,14 @@
       <c r="D110" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>283</v>
       </c>
@@ -4046,8 +4941,14 @@
       <c r="D111" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>21</v>
+      </c>
+      <c r="F111" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>284</v>
       </c>
@@ -4060,8 +4961,14 @@
       <c r="D112" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>285</v>
       </c>
@@ -4074,8 +4981,14 @@
       <c r="D113" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>286</v>
       </c>
@@ -4088,8 +5001,14 @@
       <c r="D114" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>24</v>
+      </c>
+      <c r="F114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>287</v>
       </c>
@@ -4102,8 +5021,14 @@
       <c r="D115" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>25</v>
+      </c>
+      <c r="F115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>288</v>
       </c>
@@ -4116,8 +5041,14 @@
       <c r="D116" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -4130,8 +5061,14 @@
       <c r="D117" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>290</v>
       </c>
@@ -4144,8 +5081,14 @@
       <c r="D118" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>291</v>
       </c>
@@ -4158,8 +5101,14 @@
       <c r="D119" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>292</v>
       </c>
@@ -4172,8 +5121,14 @@
       <c r="D120" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>293</v>
       </c>
@@ -4186,8 +5141,14 @@
       <c r="D121" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>294</v>
       </c>
@@ -4200,8 +5161,14 @@
       <c r="D122" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>295</v>
       </c>
@@ -4214,8 +5181,14 @@
       <c r="D123" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>296</v>
       </c>
@@ -4228,8 +5201,14 @@
       <c r="D124" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>297</v>
       </c>
@@ -4242,8 +5221,14 @@
       <c r="D125" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>298</v>
       </c>
@@ -4256,8 +5241,14 @@
       <c r="D126" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>299</v>
       </c>
@@ -4270,8 +5261,14 @@
       <c r="D127" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>300</v>
       </c>
@@ -4284,8 +5281,14 @@
       <c r="D128" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>301</v>
       </c>
@@ -4298,8 +5301,14 @@
       <c r="D129" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>302</v>
       </c>
@@ -4312,8 +5321,14 @@
       <c r="D130" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>303</v>
       </c>
@@ -4326,8 +5341,14 @@
       <c r="D131" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>304</v>
       </c>
@@ -4340,8 +5361,14 @@
       <c r="D132" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>305</v>
       </c>
@@ -4354,8 +5381,14 @@
       <c r="D133" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>17</v>
+      </c>
+      <c r="F133" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>306</v>
       </c>
@@ -4368,8 +5401,14 @@
       <c r="D134" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>18</v>
+      </c>
+      <c r="F134" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>307</v>
       </c>
@@ -4382,8 +5421,14 @@
       <c r="D135" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>19</v>
+      </c>
+      <c r="F135" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>308</v>
       </c>
@@ -4396,8 +5441,14 @@
       <c r="D136" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>20</v>
+      </c>
+      <c r="F136" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>309</v>
       </c>
@@ -4410,8 +5461,14 @@
       <c r="D137" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>310</v>
       </c>
@@ -4424,8 +5481,14 @@
       <c r="D138" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>311</v>
       </c>
@@ -4438,8 +5501,14 @@
       <c r="D139" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>23</v>
+      </c>
+      <c r="F139" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>312</v>
       </c>
@@ -4452,8 +5521,14 @@
       <c r="D140" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>24</v>
+      </c>
+      <c r="F140" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -4466,8 +5541,17 @@
       <c r="D141" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>25</v>
+      </c>
+      <c r="F141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>314</v>
+      </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
@@ -4478,7 +5562,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>314</v>
+      </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
@@ -4489,7 +5576,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>314</v>
+      </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +5590,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>314</v>
+      </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
@@ -4511,7 +5604,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>314</v>
+      </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
@@ -4522,7 +5618,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>314</v>
+      </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
@@ -4533,7 +5632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -4546,713 +5645,2170 @@
       <c r="D148" t="s">
         <v>22</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>317</v>
+      </c>
+      <c r="G148" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>318</v>
+      </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="G150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>322</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="G153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>323</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154">
+        <v>6</v>
+      </c>
+      <c r="G154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>324</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="G155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>325</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>333</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>335</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>341</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>342</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>345</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>347</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>49</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>351</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>49</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>49</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
         <v>103</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D180" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>103</v>
+      </c>
+      <c r="D181" t="s">
+        <v>104</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>103</v>
+      </c>
+      <c r="D182" t="s">
+        <v>104</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>103</v>
+      </c>
+      <c r="D183" t="s">
+        <v>104</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>359</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" t="s">
+        <v>104</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>384</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>385</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>103</v>
+      </c>
+      <c r="D186" t="s">
+        <v>104</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>386</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>103</v>
+      </c>
+      <c r="D187" t="s">
+        <v>104</v>
+      </c>
+      <c r="E187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>387</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>103</v>
+      </c>
+      <c r="D188" t="s">
+        <v>104</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>388</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>103</v>
+      </c>
+      <c r="D189" t="s">
+        <v>104</v>
+      </c>
+      <c r="E189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>389</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>103</v>
+      </c>
+      <c r="D190" t="s">
+        <v>104</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>103</v>
+      </c>
+      <c r="D191" t="s">
+        <v>104</v>
+      </c>
+      <c r="E191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>391</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>103</v>
+      </c>
+      <c r="D192" t="s">
+        <v>104</v>
+      </c>
+      <c r="E192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>103</v>
+      </c>
+      <c r="D193" t="s">
+        <v>104</v>
+      </c>
+      <c r="E193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>327</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>103</v>
+      </c>
+      <c r="D194" t="s">
+        <v>104</v>
+      </c>
+      <c r="E194">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>328</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>103</v>
+      </c>
+      <c r="D195" t="s">
+        <v>104</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>329</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>103</v>
+      </c>
+      <c r="D196" t="s">
+        <v>104</v>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>330</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>103</v>
+      </c>
+      <c r="D197" t="s">
+        <v>104</v>
+      </c>
+      <c r="E197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>331</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>103</v>
+      </c>
+      <c r="D198" t="s">
+        <v>104</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>332</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>103</v>
+      </c>
+      <c r="D199" t="s">
+        <v>104</v>
+      </c>
+      <c r="E199">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>360</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>103</v>
+      </c>
+      <c r="D200" t="s">
+        <v>104</v>
+      </c>
+      <c r="E200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>103</v>
+      </c>
+      <c r="D201" t="s">
+        <v>104</v>
+      </c>
+      <c r="E201">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>362</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>103</v>
+      </c>
+      <c r="D202" t="s">
+        <v>104</v>
+      </c>
+      <c r="E202">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>363</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>103</v>
+      </c>
+      <c r="D203" t="s">
+        <v>104</v>
+      </c>
+      <c r="E203">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D204" t="s">
+        <v>104</v>
+      </c>
+      <c r="E204">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>103</v>
+      </c>
+      <c r="D205" t="s">
+        <v>104</v>
+      </c>
+      <c r="E205">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>103</v>
+      </c>
+      <c r="D206" t="s">
+        <v>104</v>
+      </c>
+      <c r="E206">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>103</v>
+      </c>
+      <c r="D207" t="s">
+        <v>104</v>
+      </c>
+      <c r="E207">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>103</v>
+      </c>
+      <c r="D208" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>369</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>103</v>
+      </c>
+      <c r="D209" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>103</v>
+      </c>
+      <c r="D210" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" t="s">
+        <v>104</v>
+      </c>
+      <c r="E211">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
         <v>105</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D212" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>105</v>
+      </c>
+      <c r="D213" t="s">
+        <v>106</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>374</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>105</v>
+      </c>
+      <c r="D214" t="s">
+        <v>106</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>105</v>
+      </c>
+      <c r="D215" t="s">
+        <v>106</v>
+      </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>376</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>105</v>
+      </c>
+      <c r="D216" t="s">
+        <v>106</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>105</v>
+      </c>
+      <c r="D217" t="s">
+        <v>106</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>105</v>
+      </c>
+      <c r="D218" t="s">
+        <v>106</v>
+      </c>
+      <c r="E218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>105</v>
+      </c>
+      <c r="D219" t="s">
+        <v>106</v>
+      </c>
+      <c r="E219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>105</v>
+      </c>
+      <c r="D220" t="s">
+        <v>106</v>
+      </c>
+      <c r="E220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>105</v>
+      </c>
+      <c r="D221" t="s">
+        <v>106</v>
+      </c>
+      <c r="E221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>105</v>
+      </c>
+      <c r="D222" t="s">
+        <v>106</v>
+      </c>
+      <c r="E222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>105</v>
+      </c>
+      <c r="D223" t="s">
+        <v>106</v>
+      </c>
+      <c r="E223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>314</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
         <v>50</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D224" t="s">
         <v>23</v>
       </c>
-      <c r="E151" t="s">
+      <c r="G224" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>314</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
         <v>107</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D225" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>314</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
         <v>109</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D226" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>314</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
         <v>51</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D227" t="s">
         <v>24</v>
       </c>
-      <c r="E154" t="s">
+      <c r="G227" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>314</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
         <v>111</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D228" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>314</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
         <v>113</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D229" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>314</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
         <v>52</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D230" t="s">
         <v>25</v>
       </c>
-      <c r="E157" t="s">
+      <c r="G230" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>314</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
         <v>115</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D231" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>314</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
         <v>117</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D232" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>314</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
         <v>53</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D233" t="s">
         <v>26</v>
       </c>
-      <c r="E160" t="s">
+      <c r="G233" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>314</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
         <v>119</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D234" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>314</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
         <v>121</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D235" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>314</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
         <v>54</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D236" t="s">
         <v>27</v>
       </c>
-      <c r="E163" t="s">
+      <c r="G236" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>314</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
         <v>123</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D237" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>314</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
         <v>125</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D238" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>314</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
         <v>55</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D239" t="s">
         <v>28</v>
       </c>
-      <c r="E166" t="s">
+      <c r="G239" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>314</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
         <v>127</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D240" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>314</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
         <v>129</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D241" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>314</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
         <v>56</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D242" t="s">
         <v>29</v>
       </c>
-      <c r="E169" t="s">
+      <c r="G242" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>314</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
         <v>131</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D243" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>314</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
         <v>133</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D244" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>314</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
         <v>57</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D245" t="s">
         <v>30</v>
       </c>
-      <c r="E172" t="s">
+      <c r="G245" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" t="s">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>314</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
         <v>135</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D246" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>314</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
         <v>137</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D247" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>314</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
         <v>58</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D248" t="s">
         <v>31</v>
       </c>
-      <c r="E175" t="s">
+      <c r="G248" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>314</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
         <v>139</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D249" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>314</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
         <v>141</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D250" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" t="s">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>314</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
         <v>59</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D251" t="s">
         <v>32</v>
       </c>
-      <c r="E178" t="s">
+      <c r="G251" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" t="s">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>314</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
         <v>143</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D252" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>314</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
         <v>145</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D253" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>314</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
         <v>60</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D254" t="s">
         <v>33</v>
       </c>
-      <c r="E181" t="s">
+      <c r="G254" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>314</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
         <v>147</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D255" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>314</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
         <v>149</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D256" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>314</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
         <v>61</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D257" t="s">
         <v>34</v>
       </c>
-      <c r="E184" t="s">
+      <c r="G257" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>314</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
         <v>151</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D258" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>314</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
         <v>153</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D259" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>314</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
         <v>62</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D260" t="s">
         <v>35</v>
       </c>
-      <c r="E187" t="s">
+      <c r="G260" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>314</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
         <v>155</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D261" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>314</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
         <v>157</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D262" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>314</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
         <v>63</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D263" t="s">
         <v>36</v>
       </c>
-      <c r="E190" t="s">
+      <c r="G263" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>314</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
         <v>159</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D264" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>314</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
         <v>161</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D265" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>314</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
         <v>64</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D266" t="s">
         <v>37</v>
       </c>
-      <c r="E193" t="s">
+      <c r="G266" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>314</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
         <v>163</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D267" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>314</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
         <v>165</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D268" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" t="s">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>314</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
         <v>65</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D269" t="s">
         <v>38</v>
       </c>
-      <c r="E196" t="s">
+      <c r="G269" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>314</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
         <v>167</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D270" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" t="s">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>314</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
         <v>169</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D271" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" t="s">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>314</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
         <v>66</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D272" t="s">
         <v>39</v>
       </c>
-      <c r="E199" t="s">
+      <c r="G272" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>314</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
         <v>171</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D273" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>314</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
         <v>173</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D274" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>314</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
         <v>67</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D275" t="s">
         <v>40</v>
       </c>
-      <c r="E202" t="s">
+      <c r="G275" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" t="s">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>314</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
         <v>175</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D276" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>314</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
         <v>177</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D277" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" t="s">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>314</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
         <v>68</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D278" t="s">
         <v>41</v>
       </c>
-      <c r="E205" t="s">
+      <c r="G278" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206" t="s">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>314</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
         <v>179</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D279" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>314</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
         <v>181</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D280" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Mapping/Register and Signal Mapping.xlsx
+++ b/Mapping/Register and Signal Mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="435">
   <si>
     <t>Signal</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Pri_Wdog_Check</t>
   </si>
   <si>
-    <t>Pri_Asmr_Mon</t>
-  </si>
-  <si>
     <t>Pri_Rtec_Mon</t>
   </si>
   <si>
@@ -463,15 +460,9 @@
     <t>3000_0260</t>
   </si>
   <si>
-    <t>Sec_Asmr_Mon</t>
-  </si>
-  <si>
     <t>2000_0280</t>
   </si>
   <si>
-    <t>Ter_Asmr_Mon</t>
-  </si>
-  <si>
     <t>3000_0280</t>
   </si>
   <si>
@@ -664,9 +655,6 @@
     <t>Sec_Pwr_Up_Seq_5</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Pri_Gld_Jet_Ts_D</t>
   </si>
   <si>
@@ -1199,6 +1187,144 @@
   </si>
   <si>
     <t>Wea_Arm_Seal_Ts_A_9</t>
+  </si>
+  <si>
+    <t>Pri_Hangor_Start</t>
+  </si>
+  <si>
+    <t>Sec_Hangor_Start</t>
+  </si>
+  <si>
+    <t>Ter_Hangor_Start</t>
+  </si>
+  <si>
+    <t>Pri_Fuze_Check_Mon_Ts_In</t>
+  </si>
+  <si>
+    <t>Pri_Fuze_Check_Mon_Ts_D</t>
+  </si>
+  <si>
+    <t>Sec_Fuze_Check_Mon_Ts_In</t>
+  </si>
+  <si>
+    <t>Sec_Fuze_Check_Mon_Ts_D</t>
+  </si>
+  <si>
+    <t>Ter_Fuze_Check_Mon_Ts_In</t>
+  </si>
+  <si>
+    <t>Ter_Fuze_Check_Mon_Ts_D</t>
+  </si>
+  <si>
+    <t>1000_00E1</t>
+  </si>
+  <si>
+    <t>2000_00E1</t>
+  </si>
+  <si>
+    <t>3000_00E1</t>
+  </si>
+  <si>
+    <t>Ter_Hk_Run</t>
+  </si>
+  <si>
+    <t>Pri_Wpa_Off_Start</t>
+  </si>
+  <si>
+    <t>Pri_Wpa_On_Start</t>
+  </si>
+  <si>
+    <t>Sec_Wpa_On_Start</t>
+  </si>
+  <si>
+    <t>Ter_Wpa_On_Start</t>
+  </si>
+  <si>
+    <t>Ter_Wpa_Off_Start</t>
+  </si>
+  <si>
+    <t>Sec_Wpa_Off_Start</t>
+  </si>
+  <si>
+    <t>Haz_Poly_Serial_Ts_In</t>
+  </si>
+  <si>
+    <t>Haz_Poly_Serial_Ts_D</t>
+  </si>
+  <si>
+    <t>Haz_Poly_Serial_Ts_E</t>
+  </si>
+  <si>
+    <t>1000_0301</t>
+  </si>
+  <si>
+    <t>1000_0302</t>
+  </si>
+  <si>
+    <t>Fpga_Signal_Check_Ts_E</t>
+  </si>
+  <si>
+    <t>Fpga_Signal_Check_Ts_L</t>
+  </si>
+  <si>
+    <t>Fpga_Signal_Check_Ts_A</t>
+  </si>
+  <si>
+    <t>Pri_Point_Start_Mon</t>
+  </si>
+  <si>
+    <t>Sec_Point_Start_Mon</t>
+  </si>
+  <si>
+    <t>Ter_Point_Start_Mon</t>
+  </si>
+  <si>
+    <t>Pri_Temp_Raw</t>
+  </si>
+  <si>
+    <t>Sec_Temp_Raw</t>
+  </si>
+  <si>
+    <t>Ter_Temp_Raw</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Pri_Stress_Reg_Mon_1</t>
+  </si>
+  <si>
+    <t>Sec_Stress_Reg_Mon_1</t>
+  </si>
+  <si>
+    <t>Ter_Stress_Reg_Mon_1</t>
+  </si>
+  <si>
+    <t>Pri_Stress_Mon</t>
+  </si>
+  <si>
+    <t>Sec_Stress_Mon</t>
+  </si>
+  <si>
+    <t>Ter_Stress_Mon</t>
+  </si>
+  <si>
+    <t>Stress_Max_001</t>
+  </si>
+  <si>
+    <t>Stress_Max_003</t>
+  </si>
+  <si>
+    <t>Stress_Max_002</t>
+  </si>
+  <si>
+    <t>1000_0281</t>
+  </si>
+  <si>
+    <t>2000_0281</t>
+  </si>
+  <si>
+    <t>3000_0281</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1350,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1235,6 +1361,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1266,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1274,6 +1406,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1615,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>426</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -2399,7 +2532,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Sec_Asmr_Mon</v>
+        <v>Sec_Stress_Mon</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -2410,7 +2543,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>Ter_Asmr_Mon</v>
+        <v>Ter_Stress_Mon</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
@@ -2422,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -2458,7 +2591,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -2494,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2530,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2566,7 +2699,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -2602,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -2638,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2674,7 +2807,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2712,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B575E61D-8039-463C-8588-67CBC96687A4}">
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:M288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2761,8 +2894,8 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>219</v>
+      <c r="A2" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2777,15 +2910,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>220</v>
+      <c r="A3" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2800,12 +2933,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>221</v>
+      <c r="A4" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2820,12 +2953,12 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>222</v>
+      <c r="A5" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2840,12 +2973,12 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>223</v>
+      <c r="A6" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2860,12 +2993,12 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>224</v>
+      <c r="A7" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2880,12 +3013,12 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
+      <c r="A8" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2900,12 +3033,12 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>226</v>
+      <c r="A9" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -2920,12 +3053,12 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>227</v>
+      <c r="A10" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -2940,12 +3073,12 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>228</v>
+      <c r="A11" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -2960,12 +3093,12 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>183</v>
+      <c r="A12" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -2980,12 +3113,12 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>184</v>
+      <c r="A13" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -3000,12 +3133,12 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>185</v>
+      <c r="A14" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -3020,12 +3153,12 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>186</v>
+      <c r="A15" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -3040,12 +3173,12 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>187</v>
+      <c r="A16" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -3060,12 +3193,12 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>188</v>
+      <c r="A17" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -3080,12 +3213,12 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>189</v>
+      <c r="A18" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -3100,12 +3233,12 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>190</v>
+      <c r="A19" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -3120,12 +3253,12 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>191</v>
+      <c r="A20" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -3140,12 +3273,12 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -3160,18 +3293,18 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>195</v>
+      <c r="A22" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -3180,18 +3313,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>196</v>
+      <c r="A23" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -3200,18 +3333,18 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>197</v>
+      <c r="A24" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -3220,18 +3353,18 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>198</v>
+      <c r="A25" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -3240,18 +3373,18 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>199</v>
+      <c r="A26" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -3260,18 +3393,18 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -3280,18 +3413,18 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3300,18 +3433,18 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -3320,18 +3453,18 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -3340,18 +3473,18 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -3360,18 +3493,18 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>205</v>
+      <c r="A32" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -3380,18 +3513,18 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>206</v>
+      <c r="A33" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -3400,18 +3533,18 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>207</v>
+      <c r="A34" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -3420,18 +3553,18 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>208</v>
+      <c r="A35" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -3440,18 +3573,18 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -3460,18 +3593,18 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -3480,18 +3613,18 @@
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -3500,18 +3633,18 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -3520,18 +3653,18 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -3540,18 +3673,18 @@
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -3560,29 +3693,29 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>217</v>
+      <c r="A43" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -3597,55 +3730,55 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>218</v>
+      <c r="A44" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
         <v>71</v>
-      </c>
-      <c r="D44" t="s">
-        <v>72</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>216</v>
+      <c r="A45" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
         <v>73</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>215</v>
+      <c r="A46" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -3660,15 +3793,15 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>229</v>
+      <c r="A47" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -3683,12 +3816,12 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>230</v>
+      <c r="A48" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -3703,12 +3836,12 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>231</v>
+      <c r="A49" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -3723,109 +3856,109 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>232</v>
+      <c r="A50" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
         <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>76</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
         <v>75</v>
-      </c>
-      <c r="D51" t="s">
-        <v>76</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
         <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>76</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
         <v>75</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
         <v>77</v>
       </c>
-      <c r="D54" t="s">
-        <v>78</v>
-      </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -3837,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G55" t="s">
         <v>4</v>
@@ -3845,41 +3978,41 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
         <v>79</v>
       </c>
-      <c r="D56" t="s">
-        <v>80</v>
-      </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
         <v>81</v>
       </c>
-      <c r="D57" t="s">
-        <v>82</v>
-      </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -3891,7 +4024,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G58" t="s">
         <v>4</v>
@@ -3899,41 +4032,41 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
         <v>83</v>
       </c>
-      <c r="D59" t="s">
-        <v>84</v>
-      </c>
       <c r="F59" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="D60" t="s">
-        <v>86</v>
-      </c>
       <c r="F60" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -3945,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G61" t="s">
         <v>4</v>
@@ -3953,41 +4086,41 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
         <v>87</v>
       </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
         <v>89</v>
       </c>
-      <c r="D63" t="s">
-        <v>90</v>
-      </c>
       <c r="F63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>236</v>
+      <c r="A64" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -4002,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G64" t="s">
         <v>4</v>
@@ -4010,7 +4143,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -4025,12 +4158,12 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>238</v>
+      <c r="A66" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -4045,12 +4178,12 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>239</v>
+      <c r="A67" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -4065,12 +4198,12 @@
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -4085,12 +4218,12 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>241</v>
+      <c r="A69" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -4105,12 +4238,12 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -4125,12 +4258,12 @@
         <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -4145,12 +4278,12 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -4165,12 +4298,12 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>254</v>
+      <c r="A73" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -4185,12 +4318,12 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>255</v>
+      <c r="A74" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -4205,12 +4338,12 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>256</v>
+      <c r="A75" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -4225,12 +4358,12 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>257</v>
+      <c r="A76" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -4245,12 +4378,12 @@
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -4265,12 +4398,12 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -4285,12 +4418,12 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -4305,12 +4438,12 @@
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -4325,12 +4458,12 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -4345,12 +4478,12 @@
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -4365,12 +4498,12 @@
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -4385,12 +4518,12 @@
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -4405,12 +4538,12 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -4425,12 +4558,12 @@
         <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -4445,12 +4578,12 @@
         <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -4465,12 +4598,12 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -4485,12 +4618,12 @@
         <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>253</v>
+      <c r="A89" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -4505,1052 +4638,1052 @@
         <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
         <v>91</v>
-      </c>
-      <c r="D90" t="s">
-        <v>92</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
         <v>91</v>
-      </c>
-      <c r="D91" t="s">
-        <v>92</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
         <v>91</v>
-      </c>
-      <c r="D92" t="s">
-        <v>92</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
         <v>91</v>
-      </c>
-      <c r="D93" t="s">
-        <v>92</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
         <v>91</v>
-      </c>
-      <c r="D94" t="s">
-        <v>92</v>
       </c>
       <c r="E94">
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" t="s">
         <v>91</v>
       </c>
-      <c r="D95" t="s">
-        <v>92</v>
-      </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" t="s">
         <v>91</v>
       </c>
-      <c r="D96" t="s">
-        <v>92</v>
-      </c>
       <c r="E96">
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
         <v>91</v>
       </c>
-      <c r="D97" t="s">
-        <v>92</v>
-      </c>
       <c r="E97">
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" t="s">
         <v>91</v>
-      </c>
-      <c r="D98" t="s">
-        <v>92</v>
       </c>
       <c r="E98">
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" t="s">
         <v>91</v>
-      </c>
-      <c r="D99" t="s">
-        <v>92</v>
       </c>
       <c r="E99">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" t="s">
         <v>91</v>
-      </c>
-      <c r="D100" t="s">
-        <v>92</v>
       </c>
       <c r="E100">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s">
         <v>91</v>
-      </c>
-      <c r="D101" t="s">
-        <v>92</v>
       </c>
       <c r="E101">
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" t="s">
         <v>91</v>
-      </c>
-      <c r="D102" t="s">
-        <v>92</v>
       </c>
       <c r="E102">
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
         <v>91</v>
-      </c>
-      <c r="D103" t="s">
-        <v>92</v>
       </c>
       <c r="E103">
         <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" t="s">
         <v>91</v>
-      </c>
-      <c r="D104" t="s">
-        <v>92</v>
       </c>
       <c r="E104">
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" t="s">
         <v>91</v>
-      </c>
-      <c r="D105" t="s">
-        <v>92</v>
       </c>
       <c r="E105">
         <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" t="s">
         <v>91</v>
-      </c>
-      <c r="D106" t="s">
-        <v>92</v>
       </c>
       <c r="E106">
         <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" t="s">
         <v>91</v>
-      </c>
-      <c r="D107" t="s">
-        <v>92</v>
       </c>
       <c r="E107">
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
+        <v>90</v>
+      </c>
+      <c r="D108" t="s">
         <v>91</v>
-      </c>
-      <c r="D108" t="s">
-        <v>92</v>
       </c>
       <c r="E108">
         <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" t="s">
         <v>91</v>
-      </c>
-      <c r="D109" t="s">
-        <v>92</v>
       </c>
       <c r="E109">
         <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" t="s">
         <v>91</v>
-      </c>
-      <c r="D110" t="s">
-        <v>92</v>
       </c>
       <c r="E110">
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" t="s">
         <v>91</v>
-      </c>
-      <c r="D111" t="s">
-        <v>92</v>
       </c>
       <c r="E111">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
+        <v>90</v>
+      </c>
+      <c r="D112" t="s">
         <v>91</v>
-      </c>
-      <c r="D112" t="s">
-        <v>92</v>
       </c>
       <c r="E112">
         <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" t="s">
         <v>91</v>
-      </c>
-      <c r="D113" t="s">
-        <v>92</v>
       </c>
       <c r="E113">
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" t="s">
         <v>91</v>
-      </c>
-      <c r="D114" t="s">
-        <v>92</v>
       </c>
       <c r="E114">
         <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" t="s">
         <v>91</v>
-      </c>
-      <c r="D115" t="s">
-        <v>92</v>
       </c>
       <c r="E115">
         <v>25</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" t="s">
         <v>93</v>
-      </c>
-      <c r="D116" t="s">
-        <v>94</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" t="s">
         <v>93</v>
-      </c>
-      <c r="D117" t="s">
-        <v>94</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" t="s">
         <v>93</v>
-      </c>
-      <c r="D118" t="s">
-        <v>94</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" t="s">
         <v>93</v>
-      </c>
-      <c r="D119" t="s">
-        <v>94</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" t="s">
         <v>93</v>
-      </c>
-      <c r="D120" t="s">
-        <v>94</v>
       </c>
       <c r="E120">
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" t="s">
         <v>93</v>
       </c>
-      <c r="D121" t="s">
-        <v>94</v>
-      </c>
       <c r="E121">
         <v>5</v>
       </c>
       <c r="F121" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" t="s">
         <v>93</v>
       </c>
-      <c r="D122" t="s">
-        <v>94</v>
-      </c>
       <c r="E122">
         <v>6</v>
       </c>
       <c r="F122" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" t="s">
         <v>93</v>
       </c>
-      <c r="D123" t="s">
-        <v>94</v>
-      </c>
       <c r="E123">
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" t="s">
         <v>93</v>
-      </c>
-      <c r="D124" t="s">
-        <v>94</v>
       </c>
       <c r="E124">
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" t="s">
         <v>93</v>
-      </c>
-      <c r="D125" t="s">
-        <v>94</v>
       </c>
       <c r="E125">
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" t="s">
         <v>93</v>
-      </c>
-      <c r="D126" t="s">
-        <v>94</v>
       </c>
       <c r="E126">
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" t="s">
         <v>93</v>
-      </c>
-      <c r="D127" t="s">
-        <v>94</v>
       </c>
       <c r="E127">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128" t="s">
         <v>93</v>
-      </c>
-      <c r="D128" t="s">
-        <v>94</v>
       </c>
       <c r="E128">
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129" t="s">
         <v>93</v>
-      </c>
-      <c r="D129" t="s">
-        <v>94</v>
       </c>
       <c r="E129">
         <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130" t="s">
         <v>93</v>
-      </c>
-      <c r="D130" t="s">
-        <v>94</v>
       </c>
       <c r="E130">
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" t="s">
         <v>93</v>
-      </c>
-      <c r="D131" t="s">
-        <v>94</v>
       </c>
       <c r="E131">
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132" t="s">
         <v>93</v>
-      </c>
-      <c r="D132" t="s">
-        <v>94</v>
       </c>
       <c r="E132">
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133" t="s">
         <v>93</v>
-      </c>
-      <c r="D133" t="s">
-        <v>94</v>
       </c>
       <c r="E133">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" t="s">
         <v>93</v>
-      </c>
-      <c r="D134" t="s">
-        <v>94</v>
       </c>
       <c r="E134">
         <v>18</v>
       </c>
       <c r="F134" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135" t="s">
         <v>93</v>
-      </c>
-      <c r="D135" t="s">
-        <v>94</v>
       </c>
       <c r="E135">
         <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" t="s">
         <v>93</v>
-      </c>
-      <c r="D136" t="s">
-        <v>94</v>
       </c>
       <c r="E136">
         <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" t="s">
         <v>93</v>
-      </c>
-      <c r="D137" t="s">
-        <v>94</v>
       </c>
       <c r="E137">
         <v>21</v>
       </c>
       <c r="F137" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" t="s">
         <v>93</v>
-      </c>
-      <c r="D138" t="s">
-        <v>94</v>
       </c>
       <c r="E138">
         <v>22</v>
       </c>
       <c r="F138" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" t="s">
         <v>93</v>
-      </c>
-      <c r="D139" t="s">
-        <v>94</v>
       </c>
       <c r="E139">
         <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140" t="s">
         <v>93</v>
-      </c>
-      <c r="D140" t="s">
-        <v>94</v>
       </c>
       <c r="E140">
         <v>24</v>
       </c>
       <c r="F140" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141" t="s">
         <v>93</v>
-      </c>
-      <c r="D141" t="s">
-        <v>94</v>
       </c>
       <c r="E141">
         <v>25</v>
       </c>
       <c r="F141" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>314</v>
+      <c r="A142" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -5561,143 +5694,158 @@
       <c r="D142" t="s">
         <v>20</v>
       </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>314</v>
+      <c r="A143" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>94</v>
+      </c>
+      <c r="D144" t="s">
         <v>95</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" t="s">
+        <v>399</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>314</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D146" t="s">
         <v>97</v>
       </c>
-      <c r="D144" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>314</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>314</v>
-      </c>
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" t="s">
-        <v>99</v>
-      </c>
-      <c r="D146" t="s">
-        <v>100</v>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>314</v>
+      <c r="A147" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D147" t="s">
-        <v>102</v>
+        <v>400</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" t="s">
-        <v>317</v>
-      </c>
-      <c r="G148" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="G149" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150">
-        <v>2</v>
-      </c>
-      <c r="G150" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -5709,15 +5857,18 @@
         <v>22</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>313</v>
       </c>
       <c r="G151" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>321</v>
+      <c r="A152" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -5729,15 +5880,15 @@
         <v>22</v>
       </c>
       <c r="E152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G152" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>322</v>
+      <c r="A153" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -5749,15 +5900,15 @@
         <v>22</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G153" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>323</v>
+      <c r="A154" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -5769,15 +5920,15 @@
         <v>22</v>
       </c>
       <c r="E154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>324</v>
+      <c r="A155" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -5789,15 +5940,15 @@
         <v>22</v>
       </c>
       <c r="E155">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G155" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>325</v>
+      <c r="A156" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -5809,15 +5960,15 @@
         <v>22</v>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G156" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>326</v>
+      <c r="A157" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -5829,15 +5980,15 @@
         <v>22</v>
       </c>
       <c r="E157">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G157" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>333</v>
+      <c r="A158" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -5849,12 +6000,15 @@
         <v>22</v>
       </c>
       <c r="E158">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G158" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>334</v>
+      <c r="A159" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -5866,12 +6020,15 @@
         <v>22</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>335</v>
+      <c r="A160" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -5883,12 +6040,15 @@
         <v>22</v>
       </c>
       <c r="E160">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>336</v>
+      <c r="A161" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -5900,12 +6060,12 @@
         <v>22</v>
       </c>
       <c r="E161">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>337</v>
+      <c r="A162" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -5917,12 +6077,12 @@
         <v>22</v>
       </c>
       <c r="E162">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>338</v>
+      <c r="A163" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -5934,12 +6094,12 @@
         <v>22</v>
       </c>
       <c r="E163">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>339</v>
+      <c r="A164" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -5951,12 +6111,12 @@
         <v>22</v>
       </c>
       <c r="E164">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>340</v>
+      <c r="A165" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -5968,12 +6128,12 @@
         <v>22</v>
       </c>
       <c r="E165">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>341</v>
+      <c r="A166" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -5985,12 +6145,12 @@
         <v>22</v>
       </c>
       <c r="E166">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>342</v>
+      <c r="A167" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -6002,12 +6162,12 @@
         <v>22</v>
       </c>
       <c r="E167">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>343</v>
+      <c r="A168" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -6019,12 +6179,12 @@
         <v>22</v>
       </c>
       <c r="E168">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>344</v>
+      <c r="A169" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -6036,12 +6196,12 @@
         <v>22</v>
       </c>
       <c r="E169">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>345</v>
+      <c r="A170" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -6053,12 +6213,12 @@
         <v>22</v>
       </c>
       <c r="E170">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>346</v>
+      <c r="A171" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -6070,12 +6230,12 @@
         <v>22</v>
       </c>
       <c r="E171">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>347</v>
+      <c r="A172" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -6087,12 +6247,12 @@
         <v>22</v>
       </c>
       <c r="E172">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>348</v>
+      <c r="A173" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -6104,12 +6264,12 @@
         <v>22</v>
       </c>
       <c r="E173">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>349</v>
+      <c r="A174" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -6121,12 +6281,12 @@
         <v>22</v>
       </c>
       <c r="E174">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>350</v>
+      <c r="A175" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -6138,12 +6298,12 @@
         <v>22</v>
       </c>
       <c r="E175">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>351</v>
+      <c r="A176" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -6155,12 +6315,12 @@
         <v>22</v>
       </c>
       <c r="E176">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>352</v>
+      <c r="A177" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -6172,12 +6332,12 @@
         <v>22</v>
       </c>
       <c r="E177">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>353</v>
+      <c r="A178" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -6189,12 +6349,12 @@
         <v>22</v>
       </c>
       <c r="E178">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>354</v>
+      <c r="A179" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -6206,859 +6366,865 @@
         <v>22</v>
       </c>
       <c r="E179">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182">
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>102</v>
+      </c>
+      <c r="D183" t="s">
+        <v>103</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>102</v>
+      </c>
+      <c r="D184" t="s">
+        <v>103</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>102</v>
+      </c>
+      <c r="D185" t="s">
+        <v>103</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>102</v>
+      </c>
+      <c r="D186" t="s">
+        <v>103</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B180" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>102</v>
+      </c>
+      <c r="D187" t="s">
         <v>103</v>
       </c>
-      <c r="D180" t="s">
-        <v>104</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="E187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>102</v>
+      </c>
+      <c r="D188" t="s">
         <v>103</v>
       </c>
-      <c r="D181" t="s">
-        <v>104</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>357</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="E188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>102</v>
+      </c>
+      <c r="D189" t="s">
         <v>103</v>
       </c>
-      <c r="D182" t="s">
-        <v>104</v>
-      </c>
-      <c r="E182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>358</v>
-      </c>
-      <c r="B183" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="E189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>102</v>
+      </c>
+      <c r="D190" t="s">
         <v>103</v>
       </c>
-      <c r="D183" t="s">
-        <v>104</v>
-      </c>
-      <c r="E183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="E190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>102</v>
+      </c>
+      <c r="D191" t="s">
         <v>103</v>
       </c>
-      <c r="D184" t="s">
-        <v>104</v>
-      </c>
-      <c r="E184">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="E191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B185" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>102</v>
+      </c>
+      <c r="D192" t="s">
         <v>103</v>
       </c>
-      <c r="D185" t="s">
-        <v>104</v>
-      </c>
-      <c r="E185">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="E192">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>102</v>
+      </c>
+      <c r="D193" t="s">
         <v>103</v>
       </c>
-      <c r="D186" t="s">
-        <v>104</v>
-      </c>
-      <c r="E186">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="E193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B187" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" t="s">
         <v>103</v>
       </c>
-      <c r="D187" t="s">
-        <v>104</v>
-      </c>
-      <c r="E187">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="E194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B188" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>102</v>
+      </c>
+      <c r="D195" t="s">
         <v>103</v>
       </c>
-      <c r="D188" t="s">
-        <v>104</v>
-      </c>
-      <c r="E188">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="E195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B189" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>102</v>
+      </c>
+      <c r="D196" t="s">
         <v>103</v>
       </c>
-      <c r="D189" t="s">
-        <v>104</v>
-      </c>
-      <c r="E189">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>389</v>
-      </c>
-      <c r="B190" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" t="s">
-        <v>103</v>
-      </c>
-      <c r="D190" t="s">
-        <v>104</v>
-      </c>
-      <c r="E190">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>390</v>
-      </c>
-      <c r="B191" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" t="s">
-        <v>103</v>
-      </c>
-      <c r="D191" t="s">
-        <v>104</v>
-      </c>
-      <c r="E191">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>391</v>
-      </c>
-      <c r="B192" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" t="s">
-        <v>103</v>
-      </c>
-      <c r="D192" t="s">
-        <v>104</v>
-      </c>
-      <c r="E192">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>392</v>
-      </c>
-      <c r="B193" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" t="s">
-        <v>103</v>
-      </c>
-      <c r="D193" t="s">
-        <v>104</v>
-      </c>
-      <c r="E193">
+      <c r="E196">
         <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>327</v>
-      </c>
-      <c r="B194" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" t="s">
-        <v>103</v>
-      </c>
-      <c r="D194" t="s">
-        <v>104</v>
-      </c>
-      <c r="E194">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>328</v>
-      </c>
-      <c r="B195" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" t="s">
-        <v>103</v>
-      </c>
-      <c r="D195" t="s">
-        <v>104</v>
-      </c>
-      <c r="E195">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>329</v>
-      </c>
-      <c r="B196" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" t="s">
-        <v>103</v>
-      </c>
-      <c r="D196" t="s">
-        <v>104</v>
-      </c>
-      <c r="E196">
-        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" t="s">
         <v>103</v>
       </c>
-      <c r="D197" t="s">
-        <v>104</v>
-      </c>
       <c r="E197">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="C198" t="s">
+        <v>102</v>
+      </c>
+      <c r="D198" t="s">
         <v>103</v>
       </c>
-      <c r="D198" t="s">
-        <v>104</v>
-      </c>
       <c r="E198">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="C199" t="s">
+        <v>102</v>
+      </c>
+      <c r="D199" t="s">
         <v>103</v>
       </c>
-      <c r="D199" t="s">
-        <v>104</v>
-      </c>
       <c r="E199">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200" t="s">
+        <v>102</v>
+      </c>
+      <c r="D200" t="s">
         <v>103</v>
       </c>
-      <c r="D200" t="s">
-        <v>104</v>
-      </c>
       <c r="E200">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201" t="s">
+        <v>102</v>
+      </c>
+      <c r="D201" t="s">
         <v>103</v>
       </c>
-      <c r="D201" t="s">
-        <v>104</v>
-      </c>
       <c r="E201">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
       <c r="C202" t="s">
+        <v>102</v>
+      </c>
+      <c r="D202" t="s">
         <v>103</v>
       </c>
-      <c r="D202" t="s">
-        <v>104</v>
-      </c>
       <c r="E202">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203" t="s">
+        <v>102</v>
+      </c>
+      <c r="D203" t="s">
         <v>103</v>
       </c>
-      <c r="D203" t="s">
-        <v>104</v>
-      </c>
       <c r="E203">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204" t="s">
+        <v>102</v>
+      </c>
+      <c r="D204" t="s">
         <v>103</v>
       </c>
-      <c r="D204" t="s">
-        <v>104</v>
-      </c>
       <c r="E204">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205" t="s">
+        <v>102</v>
+      </c>
+      <c r="D205" t="s">
         <v>103</v>
       </c>
-      <c r="D205" t="s">
-        <v>104</v>
-      </c>
       <c r="E205">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206" t="s">
+        <v>102</v>
+      </c>
+      <c r="D206" t="s">
         <v>103</v>
       </c>
-      <c r="D206" t="s">
-        <v>104</v>
-      </c>
       <c r="E206">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="C207" t="s">
+        <v>102</v>
+      </c>
+      <c r="D207" t="s">
         <v>103</v>
       </c>
-      <c r="D207" t="s">
-        <v>104</v>
-      </c>
       <c r="E207">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>361</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>102</v>
+      </c>
+      <c r="D208" t="s">
+        <v>103</v>
+      </c>
+      <c r="E208">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>362</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>102</v>
+      </c>
+      <c r="D209" t="s">
+        <v>103</v>
+      </c>
+      <c r="E209">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>363</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>102</v>
+      </c>
+      <c r="D210" t="s">
+        <v>103</v>
+      </c>
+      <c r="E210">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>364</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>102</v>
+      </c>
+      <c r="D211" t="s">
+        <v>103</v>
+      </c>
+      <c r="E211">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>365</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>102</v>
+      </c>
+      <c r="D212" t="s">
+        <v>103</v>
+      </c>
+      <c r="E212">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>366</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" t="s">
+        <v>103</v>
+      </c>
+      <c r="E213">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>367</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>102</v>
+      </c>
+      <c r="D214" t="s">
+        <v>103</v>
+      </c>
+      <c r="E214">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>368</v>
       </c>
-      <c r="B208" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" t="s">
-        <v>103</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
         <v>104</v>
       </c>
-      <c r="E208">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="D215" t="s">
+        <v>105</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>369</v>
       </c>
-      <c r="B209" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" t="s">
-        <v>103</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
         <v>104</v>
       </c>
-      <c r="E209">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="D216" t="s">
+        <v>105</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>370</v>
       </c>
-      <c r="B210" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" t="s">
-        <v>103</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
         <v>104</v>
       </c>
-      <c r="E210">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="D217" t="s">
+        <v>105</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>371</v>
       </c>
-      <c r="B211" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" t="s">
-        <v>103</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
         <v>104</v>
       </c>
-      <c r="E211">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="D218" t="s">
+        <v>105</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>372</v>
       </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>104</v>
+      </c>
+      <c r="D219" t="s">
         <v>105</v>
       </c>
-      <c r="D212" t="s">
-        <v>106</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="E219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>373</v>
       </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>104</v>
+      </c>
+      <c r="D220" t="s">
         <v>105</v>
       </c>
-      <c r="D213" t="s">
-        <v>106</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="E220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>374</v>
       </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>104</v>
+      </c>
+      <c r="D221" t="s">
         <v>105</v>
       </c>
-      <c r="D214" t="s">
-        <v>106</v>
-      </c>
-      <c r="E214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="E221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>375</v>
       </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>104</v>
+      </c>
+      <c r="D222" t="s">
         <v>105</v>
       </c>
-      <c r="D215" t="s">
-        <v>106</v>
-      </c>
-      <c r="E215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="E222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>376</v>
       </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>104</v>
+      </c>
+      <c r="D223" t="s">
         <v>105</v>
       </c>
-      <c r="D216" t="s">
-        <v>106</v>
-      </c>
-      <c r="E216">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="E223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>377</v>
       </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>104</v>
+      </c>
+      <c r="D224" t="s">
         <v>105</v>
       </c>
-      <c r="D217" t="s">
-        <v>106</v>
-      </c>
-      <c r="E217">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>378</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>105</v>
-      </c>
-      <c r="D218" t="s">
-        <v>106</v>
-      </c>
-      <c r="E218">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>379</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>105</v>
-      </c>
-      <c r="D219" t="s">
-        <v>106</v>
-      </c>
-      <c r="E219">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>380</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>105</v>
-      </c>
-      <c r="D220" t="s">
-        <v>106</v>
-      </c>
-      <c r="E220">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>381</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>105</v>
-      </c>
-      <c r="D221" t="s">
-        <v>106</v>
-      </c>
-      <c r="E221">
+      <c r="E224">
         <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>382</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>105</v>
-      </c>
-      <c r="D222" t="s">
-        <v>106</v>
-      </c>
-      <c r="E222">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>383</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>105</v>
-      </c>
-      <c r="D223" t="s">
-        <v>106</v>
-      </c>
-      <c r="E223">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>314</v>
-      </c>
-      <c r="B224" t="s">
-        <v>5</v>
-      </c>
-      <c r="C224" t="s">
-        <v>50</v>
-      </c>
-      <c r="D224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D225" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="E225">
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D226" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="E226">
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>314</v>
+      <c r="A227" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G227" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>314</v>
+      <c r="A228" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>314</v>
+      <c r="A229" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D229" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G230" t="s">
         <v>4</v>
@@ -7066,44 +7232,44 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D231" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D232" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G233" t="s">
         <v>4</v>
@@ -7111,134 +7277,134 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D234" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D235" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>314</v>
+      <c r="A236" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D236" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G236" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>314</v>
+      <c r="A237" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D237" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>314</v>
+      <c r="A238" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D238" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>314</v>
+      <c r="A239" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G239" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>314</v>
+      <c r="A240" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D240" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>314</v>
+      <c r="A241" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D241" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G242" t="s">
         <v>4</v>
@@ -7246,44 +7412,44 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D243" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D244" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
         <v>4</v>
@@ -7291,44 +7457,44 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D246" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D247" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G248" t="s">
         <v>4</v>
@@ -7336,44 +7502,44 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D249" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B250" t="s">
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D250" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
         <v>4</v>
@@ -7381,44 +7547,44 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D252" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D253" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G254" t="s">
         <v>4</v>
@@ -7426,134 +7592,149 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D255" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D256" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>314</v>
+      <c r="A257" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="D257" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F257" t="s">
+        <v>422</v>
       </c>
       <c r="G257" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>314</v>
+      <c r="A258" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="D258" t="s">
-        <v>152</v>
+        <v>432</v>
+      </c>
+      <c r="F258" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>314</v>
+      <c r="A259" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C259" t="s">
-        <v>153</v>
+        <v>427</v>
       </c>
       <c r="D259" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="F259" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>314</v>
+      <c r="A260" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C260" t="s">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="D260" t="s">
-        <v>35</v>
-      </c>
-      <c r="G260" t="s">
-        <v>4</v>
+        <v>433</v>
+      </c>
+      <c r="F260" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>314</v>
+      <c r="A261" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="D261" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="F261" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>314</v>
+      <c r="A262" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>157</v>
+        <v>428</v>
       </c>
       <c r="D262" t="s">
-        <v>158</v>
+        <v>434</v>
+      </c>
+      <c r="F262" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D263" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G263" t="s">
         <v>4</v>
@@ -7561,44 +7742,44 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D264" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D265" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D266" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
         <v>4</v>
@@ -7606,44 +7787,44 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
       </c>
       <c r="C267" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D267" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D268" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D269" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G269" t="s">
         <v>4</v>
@@ -7651,165 +7832,292 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D270" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D271" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>314</v>
+      <c r="A272" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D272" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>314</v>
+      <c r="A273" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D273" t="s">
-        <v>172</v>
+        <v>411</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>314</v>
+      <c r="A274" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="D274" t="s">
-        <v>174</v>
+        <v>412</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="D275" t="s">
-        <v>40</v>
-      </c>
-      <c r="G275" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D276" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="D277" t="s">
-        <v>178</v>
+        <v>38</v>
+      </c>
+      <c r="G277" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="D278" t="s">
-        <v>41</v>
-      </c>
-      <c r="G278" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D279" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="D280" t="s">
-        <v>182</v>
+        <v>39</v>
+      </c>
+      <c r="G280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>310</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>168</v>
+      </c>
+      <c r="D281" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>310</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
+        <v>170</v>
+      </c>
+      <c r="D282" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>310</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>66</v>
+      </c>
+      <c r="D283" t="s">
+        <v>40</v>
+      </c>
+      <c r="G283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>310</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>172</v>
+      </c>
+      <c r="D284" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>310</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>174</v>
+      </c>
+      <c r="D285" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>419</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>67</v>
+      </c>
+      <c r="D286" t="s">
+        <v>41</v>
+      </c>
+      <c r="F286" t="s">
+        <v>422</v>
+      </c>
+      <c r="G286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>420</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>176</v>
+      </c>
+      <c r="D287" t="s">
+        <v>177</v>
+      </c>
+      <c r="F287" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>421</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>178</v>
+      </c>
+      <c r="D288" t="s">
+        <v>179</v>
+      </c>
+      <c r="F288" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/Register and Signal Mapping.xlsx
+++ b/Mapping/Register and Signal Mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="499">
   <si>
     <t>Signal</t>
   </si>
@@ -1325,6 +1325,198 @@
   </si>
   <si>
     <t>3000_0281</t>
+  </si>
+  <si>
+    <t>Pri_Input_Payload_Check</t>
+  </si>
+  <si>
+    <t>Ter_Input_Payload_Check</t>
+  </si>
+  <si>
+    <t>Sec_Input_Payload_Check</t>
+  </si>
+  <si>
+    <t>Pri_Output_Payload_Check</t>
+  </si>
+  <si>
+    <t>Sec_Output_Payload_Check</t>
+  </si>
+  <si>
+    <t>Ter_Output_Payload_Check</t>
+  </si>
+  <si>
+    <t>Temp_Max_001</t>
+  </si>
+  <si>
+    <t>Temp_Min_001</t>
+  </si>
+  <si>
+    <t>Temp_Max_002</t>
+  </si>
+  <si>
+    <t>Temp_Min_002</t>
+  </si>
+  <si>
+    <t>Temp_Max_003</t>
+  </si>
+  <si>
+    <t>Temp_Min_003</t>
+  </si>
+  <si>
+    <t>Ex_Sys_Course_Cor_Ts_D</t>
+  </si>
+  <si>
+    <t>Ex_Sys_Course_Cor_Ts_E</t>
+  </si>
+  <si>
+    <t>Ex_Sys_Com_Check_Ts_D</t>
+  </si>
+  <si>
+    <t>Ex_Sys_Com_Check_Ts_E</t>
+  </si>
+  <si>
+    <t>Sim_Run_Ts_In</t>
+  </si>
+  <si>
+    <t>Sim_Run_Ts_L</t>
+  </si>
+  <si>
+    <t>Rtec_Switch_Mon</t>
+  </si>
+  <si>
+    <t>Ap_Reset_Switch_Ts_D</t>
+  </si>
+  <si>
+    <t>Pri_Pressure_Enabler_Run</t>
+  </si>
+  <si>
+    <t>Sec_Pressure_Enabler_Run</t>
+  </si>
+  <si>
+    <t>Ter_Pressure_Enabler_Run</t>
+  </si>
+  <si>
+    <t>Local_Area_Range_Check_Ts_E_2</t>
+  </si>
+  <si>
+    <t>Local_Area_Range_Check_Ts_E_1</t>
+  </si>
+  <si>
+    <t>Local_Area_Range_Check_Ts_E_3</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_1</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_2</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_3</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_4</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_5</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_6</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_7</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_8</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_9</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_10</t>
+  </si>
+  <si>
+    <t>Check_Ts_In_11</t>
+  </si>
+  <si>
+    <t>Value_Check_Nvram_1</t>
+  </si>
+  <si>
+    <t>Value_Check_Nvram_2</t>
+  </si>
+  <si>
+    <t>Value_Check_Sram_1</t>
+  </si>
+  <si>
+    <t>Value_Check_Sram_2</t>
+  </si>
+  <si>
+    <t>Value_Check_Flash_1</t>
+  </si>
+  <si>
+    <t>Value_Check_Flash_2</t>
+  </si>
+  <si>
+    <t>LP_Raw_Distance</t>
+  </si>
+  <si>
+    <t>LP_Raw_Distance_Max</t>
+  </si>
+  <si>
+    <t>LP_Raw_Distance_Min</t>
+  </si>
+  <si>
+    <t>LP_Raw_Time</t>
+  </si>
+  <si>
+    <t>LP_Raw_Distance_Time</t>
+  </si>
+  <si>
+    <t>LP_Raw_Distance_Time_Max</t>
+  </si>
+  <si>
+    <t>LP_Raw_Distance_Time_Min</t>
+  </si>
+  <si>
+    <t>Raw_Acceleration_Nx_Value</t>
+  </si>
+  <si>
+    <t>Raw_Acceleration_Nx_Max</t>
+  </si>
+  <si>
+    <t>Projectile_Angle_Raw</t>
+  </si>
+  <si>
+    <t>Projectile_Angle_Max</t>
+  </si>
+  <si>
+    <t>Projectile_Correction_Signal</t>
+  </si>
+  <si>
+    <t>Err_Signal_Radar_Comms</t>
+  </si>
+  <si>
+    <t>Drop_Time_End_Reg</t>
+  </si>
+  <si>
+    <t>Ex_Mon_Drop_Time</t>
+  </si>
+  <si>
+    <t>Arm_Weapon_Ts_L_Distance</t>
+  </si>
+  <si>
+    <t>Ex_Range_Distance_1</t>
+  </si>
+  <si>
+    <t>Ex_Range_Distance_2</t>
+  </si>
+  <si>
+    <t>Ex_Range_Distance_3</t>
+  </si>
+  <si>
+    <t>Rtec_Timer_End_1</t>
+  </si>
+  <si>
+    <t>Rtec_Timer_End_3</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2845,15 +3037,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B575E61D-8039-463C-8588-67CBC96687A4}">
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.28515625" customWidth="1"/>
@@ -3277,7 +3469,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B21" t="s">
@@ -3577,7 +3769,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B36" t="s">
@@ -3597,7 +3789,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B37" t="s">
@@ -3677,7 +3869,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B41" t="s">
@@ -3697,7 +3889,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B42" t="s">
@@ -3880,7 +4072,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B51" t="s">
@@ -3900,7 +4092,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B52" t="s">
@@ -3957,7 +4149,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B55" t="s">
@@ -3977,7 +4169,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B56" t="s">
@@ -3994,7 +4186,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B57" t="s">
@@ -4011,7 +4203,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B58" t="s">
@@ -4031,7 +4223,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B59" t="s">
@@ -4048,7 +4240,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B60" t="s">
@@ -4065,8 +4257,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>310</v>
+      <c r="A61" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -4085,8 +4277,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>310</v>
+      <c r="A62" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -4102,8 +4294,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>310</v>
+      <c r="A63" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -4142,7 +4334,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B65" t="s">
@@ -4202,7 +4394,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B68" t="s">
@@ -4242,7 +4434,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B70" t="s">
@@ -4262,7 +4454,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B71" t="s">
@@ -4282,7 +4474,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B72" t="s">
@@ -4382,7 +4574,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B77" t="s">
@@ -4402,7 +4594,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B78" t="s">
@@ -4422,7 +4614,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B79" t="s">
@@ -4442,7 +4634,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B80" t="s">
@@ -4462,7 +4654,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B81" t="s">
@@ -4482,7 +4674,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B82" t="s">
@@ -4502,7 +4694,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B83" t="s">
@@ -4522,7 +4714,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B84" t="s">
@@ -4542,7 +4734,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B85" t="s">
@@ -4562,7 +4754,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B86" t="s">
@@ -4582,7 +4774,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B87" t="s">
@@ -4602,7 +4794,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B88" t="s">
@@ -4642,7 +4834,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B90" t="s">
@@ -4662,7 +4854,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B91" t="s">
@@ -4682,7 +4874,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B92" t="s">
@@ -4702,7 +4894,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B93" t="s">
@@ -4722,7 +4914,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B94" t="s">
@@ -4742,7 +4934,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B95" t="s">
@@ -4762,7 +4954,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B96" t="s">
@@ -4782,7 +4974,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B97" t="s">
@@ -4802,7 +4994,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B98" t="s">
@@ -4822,7 +5014,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B99" t="s">
@@ -4842,7 +5034,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B100" t="s">
@@ -4862,7 +5054,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B101" t="s">
@@ -4882,7 +5074,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B102" t="s">
@@ -4902,7 +5094,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B103" t="s">
@@ -4922,7 +5114,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B104" t="s">
@@ -4942,7 +5134,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B105" t="s">
@@ -4962,7 +5154,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B106" t="s">
@@ -4982,7 +5174,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B107" t="s">
@@ -5002,7 +5194,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B108" t="s">
@@ -5022,7 +5214,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B109" t="s">
@@ -5042,7 +5234,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B110" t="s">
@@ -5062,7 +5254,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B111" t="s">
@@ -5082,7 +5274,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B112" t="s">
@@ -5102,7 +5294,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B113" t="s">
@@ -5122,7 +5314,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B114" t="s">
@@ -5142,7 +5334,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B115" t="s">
@@ -5162,7 +5354,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B116" t="s">
@@ -5182,7 +5374,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B117" t="s">
@@ -5202,7 +5394,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B118" t="s">
@@ -5222,7 +5414,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B119" t="s">
@@ -5242,7 +5434,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B120" t="s">
@@ -5262,7 +5454,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B121" t="s">
@@ -5282,7 +5474,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B122" t="s">
@@ -5302,7 +5494,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B123" t="s">
@@ -5322,7 +5514,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B124" t="s">
@@ -5342,7 +5534,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B125" t="s">
@@ -5362,7 +5554,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B126" t="s">
@@ -5382,7 +5574,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B127" t="s">
@@ -5402,7 +5594,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B128" t="s">
@@ -5422,7 +5614,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B129" t="s">
@@ -5442,7 +5634,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B130" t="s">
@@ -5462,7 +5654,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B131" t="s">
@@ -5482,7 +5674,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B132" t="s">
@@ -5502,7 +5694,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B133" t="s">
@@ -5522,7 +5714,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B134" t="s">
@@ -5542,7 +5734,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B135" t="s">
@@ -5562,7 +5754,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B136" t="s">
@@ -5582,7 +5774,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B137" t="s">
@@ -5602,7 +5794,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B138" t="s">
@@ -5622,7 +5814,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B139" t="s">
@@ -5642,7 +5834,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B140" t="s">
@@ -5662,7 +5854,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B141" t="s">
@@ -5741,7 +5933,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>395</v>
       </c>
@@ -5761,7 +5953,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>396</v>
       </c>
@@ -5781,7 +5973,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>397</v>
       </c>
@@ -5801,9 +5993,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>310</v>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -5815,240 +6007,177 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>310</v>
       </c>
-      <c r="B149" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
         <v>98</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D159" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>310</v>
       </c>
-      <c r="B150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
         <v>100</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D160" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>49</v>
-      </c>
-      <c r="D151" t="s">
-        <v>22</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" t="s">
-        <v>313</v>
-      </c>
-      <c r="G151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>49</v>
-      </c>
-      <c r="D152" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="G152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153">
-        <v>2</v>
-      </c>
-      <c r="G153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
-        <v>49</v>
-      </c>
-      <c r="D154" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154">
-        <v>3</v>
-      </c>
-      <c r="G154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" t="s">
-        <v>49</v>
-      </c>
-      <c r="D155" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155">
-        <v>4</v>
-      </c>
-      <c r="G155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" t="s">
-        <v>49</v>
-      </c>
-      <c r="D156" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156">
-        <v>5</v>
-      </c>
-      <c r="G156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>49</v>
-      </c>
-      <c r="D157" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157">
-        <v>6</v>
-      </c>
-      <c r="G157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" t="s">
-        <v>49</v>
-      </c>
-      <c r="D158" t="s">
-        <v>22</v>
-      </c>
-      <c r="E158">
-        <v>7</v>
-      </c>
-      <c r="G158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" t="s">
-        <v>49</v>
-      </c>
-      <c r="D159" t="s">
-        <v>22</v>
-      </c>
-      <c r="E159">
-        <v>8</v>
-      </c>
-      <c r="G159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>49</v>
-      </c>
-      <c r="D160" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160">
-        <v>9</v>
-      </c>
-      <c r="G160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -6060,12 +6189,18 @@
         <v>22</v>
       </c>
       <c r="E161">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>313</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -6077,12 +6212,15 @@
         <v>22</v>
       </c>
       <c r="E162">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -6094,12 +6232,15 @@
         <v>22</v>
       </c>
       <c r="E163">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -6111,12 +6252,15 @@
         <v>22</v>
       </c>
       <c r="E164">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -6128,12 +6272,15 @@
         <v>22</v>
       </c>
       <c r="E165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -6145,12 +6292,15 @@
         <v>22</v>
       </c>
       <c r="E166">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -6162,12 +6312,15 @@
         <v>22</v>
       </c>
       <c r="E167">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -6179,12 +6332,15 @@
         <v>22</v>
       </c>
       <c r="E168">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -6196,12 +6352,15 @@
         <v>22</v>
       </c>
       <c r="E169">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -6213,12 +6372,15 @@
         <v>22</v>
       </c>
       <c r="E170">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -6230,12 +6392,12 @@
         <v>22</v>
       </c>
       <c r="E171">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -6247,12 +6409,12 @@
         <v>22</v>
       </c>
       <c r="E172">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -6264,12 +6426,12 @@
         <v>22</v>
       </c>
       <c r="E173">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -6281,12 +6443,12 @@
         <v>22</v>
       </c>
       <c r="E174">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -6298,12 +6460,12 @@
         <v>22</v>
       </c>
       <c r="E175">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -6315,12 +6477,12 @@
         <v>22</v>
       </c>
       <c r="E176">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -6332,12 +6494,12 @@
         <v>22</v>
       </c>
       <c r="E177">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -6349,12 +6511,12 @@
         <v>22</v>
       </c>
       <c r="E178">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -6366,12 +6528,12 @@
         <v>22</v>
       </c>
       <c r="E179">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -6383,12 +6545,12 @@
         <v>22</v>
       </c>
       <c r="E180">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -6400,12 +6562,12 @@
         <v>22</v>
       </c>
       <c r="E181">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -6417,182 +6579,182 @@
         <v>22</v>
       </c>
       <c r="E182">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D183" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D184" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D185" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D186" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E187">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E188">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E189">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E190">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D192" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E192">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -6604,12 +6766,12 @@
         <v>103</v>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -6621,12 +6783,12 @@
         <v>103</v>
       </c>
       <c r="E194">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -6638,12 +6800,12 @@
         <v>103</v>
       </c>
       <c r="E195">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -6655,12 +6817,12 @@
         <v>103</v>
       </c>
       <c r="E196">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>323</v>
+      <c r="A197" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -6672,12 +6834,12 @@
         <v>103</v>
       </c>
       <c r="E197">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>324</v>
+      <c r="A198" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -6689,12 +6851,12 @@
         <v>103</v>
       </c>
       <c r="E198">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>325</v>
+      <c r="A199" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -6706,12 +6868,12 @@
         <v>103</v>
       </c>
       <c r="E199">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>326</v>
+      <c r="A200" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -6723,12 +6885,12 @@
         <v>103</v>
       </c>
       <c r="E200">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>327</v>
+      <c r="A201" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -6740,12 +6902,12 @@
         <v>103</v>
       </c>
       <c r="E201">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>328</v>
+      <c r="A202" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -6757,12 +6919,12 @@
         <v>103</v>
       </c>
       <c r="E202">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>356</v>
+      <c r="A203" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -6774,12 +6936,12 @@
         <v>103</v>
       </c>
       <c r="E203">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>357</v>
+      <c r="A204" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -6791,12 +6953,12 @@
         <v>103</v>
       </c>
       <c r="E204">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>358</v>
+      <c r="A205" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -6808,12 +6970,12 @@
         <v>103</v>
       </c>
       <c r="E205">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>359</v>
+      <c r="A206" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -6825,12 +6987,12 @@
         <v>103</v>
       </c>
       <c r="E206">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>360</v>
+      <c r="A207" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -6842,12 +7004,12 @@
         <v>103</v>
       </c>
       <c r="E207">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>361</v>
+      <c r="A208" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -6859,12 +7021,12 @@
         <v>103</v>
       </c>
       <c r="E208">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>362</v>
+      <c r="A209" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -6876,12 +7038,12 @@
         <v>103</v>
       </c>
       <c r="E209">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>363</v>
+      <c r="A210" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -6893,12 +7055,12 @@
         <v>103</v>
       </c>
       <c r="E210">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>364</v>
+      <c r="A211" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -6910,12 +7072,12 @@
         <v>103</v>
       </c>
       <c r="E211">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>365</v>
+      <c r="A212" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -6927,12 +7089,12 @@
         <v>103</v>
       </c>
       <c r="E212">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>366</v>
+      <c r="A213" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -6944,12 +7106,12 @@
         <v>103</v>
       </c>
       <c r="E213">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>367</v>
+      <c r="A214" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -6961,182 +7123,182 @@
         <v>103</v>
       </c>
       <c r="E214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>102</v>
+      </c>
+      <c r="D215" t="s">
+        <v>103</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>102</v>
+      </c>
+      <c r="D216" t="s">
+        <v>103</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>102</v>
+      </c>
+      <c r="D217" t="s">
+        <v>103</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>102</v>
+      </c>
+      <c r="D218" t="s">
+        <v>103</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>102</v>
+      </c>
+      <c r="D219" t="s">
+        <v>103</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>102</v>
+      </c>
+      <c r="D220" t="s">
+        <v>103</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>102</v>
+      </c>
+      <c r="D221" t="s">
+        <v>103</v>
+      </c>
+      <c r="E221">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>102</v>
+      </c>
+      <c r="D222" t="s">
+        <v>103</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>102</v>
+      </c>
+      <c r="D223" t="s">
+        <v>103</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>102</v>
+      </c>
+      <c r="D224" t="s">
+        <v>103</v>
+      </c>
+      <c r="E224">
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>104</v>
-      </c>
-      <c r="D215" t="s">
-        <v>105</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>369</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>104</v>
-      </c>
-      <c r="D216" t="s">
-        <v>105</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>370</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>104</v>
-      </c>
-      <c r="D217" t="s">
-        <v>105</v>
-      </c>
-      <c r="E217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>371</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>104</v>
-      </c>
-      <c r="D218" t="s">
-        <v>105</v>
-      </c>
-      <c r="E218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>372</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>104</v>
-      </c>
-      <c r="D219" t="s">
-        <v>105</v>
-      </c>
-      <c r="E219">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>373</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>104</v>
-      </c>
-      <c r="D220" t="s">
-        <v>105</v>
-      </c>
-      <c r="E220">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>374</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>104</v>
-      </c>
-      <c r="D221" t="s">
-        <v>105</v>
-      </c>
-      <c r="E221">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>375</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>104</v>
-      </c>
-      <c r="D222" t="s">
-        <v>105</v>
-      </c>
-      <c r="E222">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>376</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>104</v>
-      </c>
-      <c r="D223" t="s">
-        <v>105</v>
-      </c>
-      <c r="E223">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>377</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>104</v>
-      </c>
-      <c r="D224" t="s">
-        <v>105</v>
-      </c>
-      <c r="E224">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>378</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -7148,12 +7310,12 @@
         <v>105</v>
       </c>
       <c r="E225">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>379</v>
+      <c r="A226" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -7165,562 +7327,586 @@
         <v>105</v>
       </c>
       <c r="E226">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D227" t="s">
-        <v>23</v>
-      </c>
-      <c r="G227" t="s">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="E228">
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D229" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="E229">
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>310</v>
+      <c r="A230" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>24</v>
-      </c>
-      <c r="G230" t="s">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>310</v>
+      <c r="A231" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="E231">
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>310</v>
+      <c r="A232" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="E232">
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>310</v>
+      <c r="A233" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D233" t="s">
-        <v>25</v>
-      </c>
-      <c r="G233" t="s">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="E233">
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>310</v>
+      <c r="A234" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="E234">
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>310</v>
+      <c r="A235" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D235" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="E235">
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236" t="s">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="E236">
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D237" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="G237" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D239" t="s">
-        <v>27</v>
-      </c>
-      <c r="G239" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="D240" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="F240" t="s">
+        <v>313</v>
+      </c>
+      <c r="G240" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>51</v>
+      </c>
+      <c r="D241" t="s">
+        <v>24</v>
+      </c>
+      <c r="F241" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>110</v>
+      </c>
+      <c r="D242" t="s">
+        <v>111</v>
+      </c>
+      <c r="F242" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>110</v>
+      </c>
+      <c r="D243" t="s">
+        <v>111</v>
+      </c>
+      <c r="F243" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>112</v>
+      </c>
+      <c r="D244" t="s">
+        <v>113</v>
+      </c>
+      <c r="F244" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>112</v>
+      </c>
+      <c r="D245" t="s">
+        <v>113</v>
+      </c>
+      <c r="F245" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>52</v>
+      </c>
+      <c r="D246" t="s">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>114</v>
+      </c>
+      <c r="D247" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>116</v>
+      </c>
+      <c r="D248" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>53</v>
+      </c>
+      <c r="D249" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>118</v>
+      </c>
+      <c r="D250" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>54</v>
+      </c>
+      <c r="D252" t="s">
+        <v>27</v>
+      </c>
+      <c r="G252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>122</v>
+      </c>
+      <c r="D253" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B241" t="s">
-        <v>7</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
         <v>124</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D254" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>310</v>
-      </c>
-      <c r="B242" t="s">
-        <v>5</v>
-      </c>
-      <c r="C242" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
         <v>55</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D255" t="s">
         <v>28</v>
       </c>
-      <c r="G242" t="s">
+      <c r="F255" t="s">
+        <v>422</v>
+      </c>
+      <c r="G255" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>310</v>
-      </c>
-      <c r="B243" t="s">
-        <v>6</v>
-      </c>
-      <c r="C243" t="s">
-        <v>126</v>
-      </c>
-      <c r="D243" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>310</v>
-      </c>
-      <c r="B244" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" t="s">
-        <v>128</v>
-      </c>
-      <c r="D244" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>310</v>
-      </c>
-      <c r="B245" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" t="s">
-        <v>56</v>
-      </c>
-      <c r="D245" t="s">
-        <v>29</v>
-      </c>
-      <c r="G245" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>310</v>
-      </c>
-      <c r="B246" t="s">
-        <v>6</v>
-      </c>
-      <c r="C246" t="s">
-        <v>130</v>
-      </c>
-      <c r="D246" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>310</v>
-      </c>
-      <c r="B247" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" t="s">
-        <v>132</v>
-      </c>
-      <c r="D247" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>310</v>
-      </c>
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" t="s">
-        <v>57</v>
-      </c>
-      <c r="D248" t="s">
-        <v>30</v>
-      </c>
-      <c r="G248" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>310</v>
-      </c>
-      <c r="B249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C249" t="s">
-        <v>134</v>
-      </c>
-      <c r="D249" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>310</v>
-      </c>
-      <c r="B250" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" t="s">
-        <v>136</v>
-      </c>
-      <c r="D250" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>310</v>
-      </c>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>58</v>
-      </c>
-      <c r="D251" t="s">
-        <v>31</v>
-      </c>
-      <c r="G251" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>310</v>
-      </c>
-      <c r="B252" t="s">
-        <v>6</v>
-      </c>
-      <c r="C252" t="s">
-        <v>138</v>
-      </c>
-      <c r="D252" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>310</v>
-      </c>
-      <c r="B253" t="s">
-        <v>7</v>
-      </c>
-      <c r="C253" t="s">
-        <v>140</v>
-      </c>
-      <c r="D253" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>310</v>
-      </c>
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
-      <c r="C254" t="s">
-        <v>59</v>
-      </c>
-      <c r="D254" t="s">
-        <v>32</v>
-      </c>
-      <c r="G254" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>310</v>
-      </c>
-      <c r="B255" t="s">
-        <v>6</v>
-      </c>
-      <c r="C255" t="s">
-        <v>142</v>
-      </c>
-      <c r="D255" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>310</v>
+      <c r="A256" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="D256" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="F256" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>426</v>
+        <v>126</v>
       </c>
       <c r="D257" t="s">
-        <v>33</v>
-      </c>
-      <c r="F257" t="s">
-        <v>422</v>
-      </c>
-      <c r="G257" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C258" t="s">
-        <v>426</v>
+        <v>126</v>
       </c>
       <c r="D258" t="s">
-        <v>432</v>
-      </c>
-      <c r="F258" t="s">
-        <v>422</v>
+        <v>127</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
       </c>
       <c r="C259" t="s">
-        <v>427</v>
+        <v>126</v>
       </c>
       <c r="D259" t="s">
-        <v>146</v>
-      </c>
-      <c r="F259" t="s">
-        <v>422</v>
+        <v>127</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>431</v>
+      <c r="A260" t="s">
+        <v>310</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>427</v>
+        <v>128</v>
       </c>
       <c r="D260" t="s">
-        <v>433</v>
-      </c>
-      <c r="F260" t="s">
-        <v>422</v>
+        <v>129</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="D261" t="s">
-        <v>147</v>
-      </c>
-      <c r="F261" t="s">
-        <v>422</v>
+        <v>29</v>
+      </c>
+      <c r="G261" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="D262" t="s">
-        <v>434</v>
-      </c>
-      <c r="F262" t="s">
-        <v>422</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7728,16 +7914,13 @@
         <v>310</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D263" t="s">
-        <v>34</v>
-      </c>
-      <c r="G263" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,131 +7928,137 @@
         <v>310</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D264" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>310</v>
+      <c r="A265" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="D265" t="s">
-        <v>151</v>
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>310</v>
+      <c r="A266" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D266" t="s">
-        <v>35</v>
-      </c>
-      <c r="G266" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>310</v>
+      <c r="A267" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D267" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>310</v>
+      <c r="A268" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D268" t="s">
-        <v>155</v>
+        <v>135</v>
+      </c>
+      <c r="F268" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>310</v>
+      <c r="A269" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C269" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D269" t="s">
-        <v>36</v>
-      </c>
-      <c r="G269" t="s">
-        <v>4</v>
+        <v>135</v>
+      </c>
+      <c r="F269" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>310</v>
+      <c r="A270" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D270" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>310</v>
+      <c r="A271" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D271" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D272" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F272" t="s">
+        <v>422</v>
       </c>
       <c r="G272" t="s">
         <v>4</v>
@@ -7877,120 +8066,138 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D273" t="s">
-        <v>411</v>
+        <v>31</v>
+      </c>
+      <c r="F273" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D274" t="s">
-        <v>412</v>
+        <v>31</v>
+      </c>
+      <c r="F274" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>310</v>
+      <c r="A275" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D275" t="s">
-        <v>161</v>
+        <v>139</v>
+      </c>
+      <c r="F275" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>310</v>
+      <c r="A276" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D276" t="s">
-        <v>163</v>
+        <v>139</v>
+      </c>
+      <c r="F276" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>310</v>
+      <c r="A277" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D277" t="s">
-        <v>38</v>
-      </c>
-      <c r="G277" t="s">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="F277" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>310</v>
+      <c r="A278" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D278" t="s">
-        <v>165</v>
+        <v>139</v>
+      </c>
+      <c r="F278" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>310</v>
+      <c r="A279" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D279" t="s">
-        <v>167</v>
+        <v>141</v>
+      </c>
+      <c r="F279" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>310</v>
+      <c r="A280" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D280" t="s">
-        <v>39</v>
-      </c>
-      <c r="G280" t="s">
-        <v>4</v>
+        <v>141</v>
+      </c>
+      <c r="F280" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7998,13 +8205,16 @@
         <v>310</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="D281" t="s">
-        <v>169</v>
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -8012,13 +8222,13 @@
         <v>310</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D282" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -8026,97 +8236,571 @@
         <v>310</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="D283" t="s">
-        <v>40</v>
-      </c>
-      <c r="G283" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>426</v>
+      </c>
+      <c r="D284" t="s">
+        <v>33</v>
+      </c>
+      <c r="F284" t="s">
+        <v>422</v>
+      </c>
+      <c r="G284" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>310</v>
-      </c>
-      <c r="B284" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284" t="s">
-        <v>172</v>
-      </c>
-      <c r="D284" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>310</v>
+      <c r="A285" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>174</v>
+        <v>426</v>
       </c>
       <c r="D285" t="s">
-        <v>175</v>
+        <v>432</v>
+      </c>
+      <c r="F285" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>419</v>
+      <c r="A286" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="D286" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="F286" t="s">
         <v>422</v>
       </c>
-      <c r="G286" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>420</v>
+      <c r="A287" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>176</v>
+        <v>427</v>
       </c>
       <c r="D287" t="s">
-        <v>177</v>
+        <v>433</v>
       </c>
       <c r="F287" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>428</v>
+      </c>
+      <c r="D288" t="s">
+        <v>147</v>
+      </c>
+      <c r="F288" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>428</v>
+      </c>
+      <c r="D289" t="s">
+        <v>434</v>
+      </c>
+      <c r="F289" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>60</v>
+      </c>
+      <c r="D290" t="s">
+        <v>34</v>
+      </c>
+      <c r="G290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>497</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>148</v>
+      </c>
+      <c r="D291" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>498</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>150</v>
+      </c>
+      <c r="D292" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>61</v>
+      </c>
+      <c r="D293" t="s">
+        <v>35</v>
+      </c>
+      <c r="G293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>152</v>
+      </c>
+      <c r="D294" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>310</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>154</v>
+      </c>
+      <c r="D295" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>310</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>62</v>
+      </c>
+      <c r="D296" t="s">
+        <v>36</v>
+      </c>
+      <c r="G296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>310</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>156</v>
+      </c>
+      <c r="D297" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>310</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
+        <v>158</v>
+      </c>
+      <c r="D298" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>37</v>
+      </c>
+      <c r="G299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>63</v>
+      </c>
+      <c r="D301" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>160</v>
+      </c>
+      <c r="D302" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>162</v>
+      </c>
+      <c r="D303" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>64</v>
+      </c>
+      <c r="D304" t="s">
+        <v>38</v>
+      </c>
+      <c r="F304" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>64</v>
+      </c>
+      <c r="D305" t="s">
+        <v>38</v>
+      </c>
+      <c r="F305" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>164</v>
+      </c>
+      <c r="D306" t="s">
+        <v>165</v>
+      </c>
+      <c r="F306" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>164</v>
+      </c>
+      <c r="D307" t="s">
+        <v>165</v>
+      </c>
+      <c r="F307" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>166</v>
+      </c>
+      <c r="D308" t="s">
+        <v>167</v>
+      </c>
+      <c r="F308" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>166</v>
+      </c>
+      <c r="D309" t="s">
+        <v>167</v>
+      </c>
+      <c r="F309" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>65</v>
+      </c>
+      <c r="D310" t="s">
+        <v>39</v>
+      </c>
+      <c r="G310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>168</v>
+      </c>
+      <c r="D311" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>170</v>
+      </c>
+      <c r="D312" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>66</v>
+      </c>
+      <c r="D313" t="s">
+        <v>40</v>
+      </c>
+      <c r="G313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>172</v>
+      </c>
+      <c r="D314" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>174</v>
+      </c>
+      <c r="D315" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>67</v>
+      </c>
+      <c r="D316" t="s">
+        <v>41</v>
+      </c>
+      <c r="F316" t="s">
+        <v>422</v>
+      </c>
+      <c r="G316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>176</v>
+      </c>
+      <c r="D317" t="s">
+        <v>177</v>
+      </c>
+      <c r="F317" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
         <v>178</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D318" t="s">
         <v>179</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F318" t="s">
         <v>422</v>
       </c>
     </row>

--- a/Mapping/Register and Signal Mapping.xlsx
+++ b/Mapping/Register and Signal Mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="499">
   <si>
     <t>Signal</t>
   </si>
@@ -1542,7 +1542,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,12 +1553,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1598,7 +1592,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3039,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B575E61D-8039-463C-8588-67CBC96687A4}">
   <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:A236"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F249" sqref="F249:F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,22 +3083,22 @@
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3112,819 +3106,860 @@
       <c r="A3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>313</v>
-      </c>
+      <c r="F3" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
+      <c r="F4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>313</v>
-      </c>
+      <c r="F5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>313</v>
-      </c>
+      <c r="F6" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>313</v>
-      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>313</v>
-      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>313</v>
-      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>313</v>
-      </c>
+      <c r="F10" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
-        <v>313</v>
-      </c>
+      <c r="F11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>313</v>
-      </c>
+      <c r="F12" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>313</v>
-      </c>
+      <c r="F13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
-        <v>313</v>
-      </c>
+      <c r="F14" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>313</v>
-      </c>
+      <c r="F15" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="3">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>10</v>
       </c>
-      <c r="F32" t="s">
-        <v>313</v>
-      </c>
+      <c r="F32" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>11</v>
       </c>
-      <c r="F33" t="s">
-        <v>313</v>
-      </c>
+      <c r="F33" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>12</v>
       </c>
-      <c r="F34" t="s">
-        <v>313</v>
-      </c>
+      <c r="F34" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
-        <v>313</v>
-      </c>
+      <c r="F35" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
-        <v>313</v>
-      </c>
+      <c r="F36" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>15</v>
       </c>
-      <c r="F37" t="s">
-        <v>313</v>
-      </c>
+      <c r="F37" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>16</v>
       </c>
-      <c r="F38" t="s">
-        <v>313</v>
-      </c>
+      <c r="F38" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>17</v>
       </c>
-      <c r="F39" t="s">
-        <v>313</v>
-      </c>
+      <c r="F39" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>18</v>
       </c>
-      <c r="F40" t="s">
-        <v>313</v>
-      </c>
+      <c r="F40" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>19</v>
       </c>
-      <c r="F41" t="s">
-        <v>313</v>
-      </c>
+      <c r="F41" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F42" t="s">
-        <v>313</v>
-      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3932,62 +3967,64 @@
       <c r="A44" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>313</v>
-      </c>
+      <c r="F44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
-        <v>313</v>
-      </c>
+      <c r="F45" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" t="s">
-        <v>313</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3995,176 +4032,186 @@
       <c r="A47" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>313</v>
-      </c>
+      <c r="F47" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
-        <v>313</v>
-      </c>
+      <c r="F48" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>3</v>
       </c>
-      <c r="F49" t="s">
-        <v>313</v>
-      </c>
+      <c r="F49" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
-        <v>313</v>
-      </c>
+      <c r="F50" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>313</v>
-      </c>
+      <c r="F51" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
-        <v>313</v>
-      </c>
+      <c r="F52" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>3</v>
       </c>
-      <c r="F53" t="s">
-        <v>313</v>
-      </c>
+      <c r="F53" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F54" t="s">
-        <v>313</v>
-      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F55" t="s">
-        <v>313</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4172,53 +4219,58 @@
       <c r="A56" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F56" t="s">
-        <v>313</v>
-      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F57" t="s">
-        <v>313</v>
-      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F58" t="s">
-        <v>313</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4226,53 +4278,58 @@
       <c r="A59" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F59" t="s">
-        <v>313</v>
-      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F60" t="s">
-        <v>313</v>
-      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F61" t="s">
-        <v>313</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4280,1921 +4337,2069 @@
       <c r="A62" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F62" t="s">
-        <v>313</v>
-      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F63" t="s">
-        <v>313</v>
-      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="F64" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>3</v>
       </c>
-      <c r="F67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>4</v>
       </c>
-      <c r="F68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="3">
+        <v>5</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="3">
+        <v>6</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E71">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>8</v>
       </c>
-      <c r="F72" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>10</v>
       </c>
-      <c r="F74" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>11</v>
       </c>
-      <c r="F75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>12</v>
       </c>
-      <c r="F76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>13</v>
       </c>
-      <c r="F77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>14</v>
       </c>
-      <c r="F78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>16</v>
       </c>
-      <c r="F80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>17</v>
       </c>
-      <c r="F81" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>18</v>
       </c>
-      <c r="F82" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>19</v>
       </c>
-      <c r="F83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>20</v>
       </c>
-      <c r="F84" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>21</v>
       </c>
-      <c r="F85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>22</v>
       </c>
-      <c r="F86" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>23</v>
       </c>
-      <c r="F87" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>24</v>
       </c>
-      <c r="F88" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>25</v>
       </c>
-      <c r="F89" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>0</v>
       </c>
-      <c r="F90" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>2</v>
       </c>
-      <c r="F92" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>3</v>
       </c>
-      <c r="F93" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>4</v>
       </c>
-      <c r="F94" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E95">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="3">
+        <v>5</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E96">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="3">
+        <v>6</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E97">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="3">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>8</v>
       </c>
-      <c r="F98" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>9</v>
       </c>
-      <c r="F99" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>10</v>
       </c>
-      <c r="F100" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>11</v>
       </c>
-      <c r="F101" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>12</v>
       </c>
-      <c r="F102" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>13</v>
       </c>
-      <c r="F103" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>14</v>
       </c>
-      <c r="F104" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>15</v>
       </c>
-      <c r="F105" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>16</v>
       </c>
-      <c r="F106" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>17</v>
       </c>
-      <c r="F107" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>18</v>
       </c>
-      <c r="F108" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>19</v>
       </c>
-      <c r="F109" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>20</v>
       </c>
-      <c r="F110" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>21</v>
       </c>
-      <c r="F111" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>22</v>
       </c>
-      <c r="F112" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B113" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>23</v>
       </c>
-      <c r="F113" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>24</v>
       </c>
-      <c r="F114" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>25</v>
       </c>
-      <c r="F115" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>0</v>
       </c>
-      <c r="F116" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>1</v>
       </c>
-      <c r="F117" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>2</v>
       </c>
-      <c r="F118" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>3</v>
       </c>
-      <c r="F119" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>4</v>
       </c>
-      <c r="F120" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E121">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="3">
+        <v>5</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="3">
+        <v>6</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E123">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="3">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>8</v>
       </c>
-      <c r="F124" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>9</v>
       </c>
-      <c r="F125" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>10</v>
       </c>
-      <c r="F126" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>11</v>
       </c>
-      <c r="F127" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>12</v>
       </c>
-      <c r="F128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>13</v>
       </c>
-      <c r="F129" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>14</v>
       </c>
-      <c r="F130" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>15</v>
       </c>
-      <c r="F131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>16</v>
       </c>
-      <c r="F132" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>17</v>
       </c>
-      <c r="F133" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>18</v>
       </c>
-      <c r="F134" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>19</v>
       </c>
-      <c r="F135" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>20</v>
       </c>
-      <c r="F136" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>21</v>
       </c>
-      <c r="F137" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>22</v>
       </c>
-      <c r="F138" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>23</v>
       </c>
-      <c r="F139" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>24</v>
       </c>
-      <c r="F140" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>25</v>
       </c>
-      <c r="F141" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>0</v>
       </c>
-      <c r="F142" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>1</v>
       </c>
-      <c r="F143" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>0</v>
       </c>
-      <c r="F144" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B145" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B145" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>1</v>
       </c>
-      <c r="F145" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <v>0</v>
       </c>
-      <c r="F146" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>1</v>
       </c>
-      <c r="F147" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E151" s="3"/>
+      <c r="F151" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E155" s="3"/>
+      <c r="F155" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E156" s="3"/>
+      <c r="F156" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="3"/>
+      <c r="F157" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="E158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B159" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>0</v>
       </c>
-      <c r="F161" t="s">
-        <v>313</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F161" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6202,19 +6407,22 @@
       <c r="A162" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="3">
         <v>1</v>
       </c>
-      <c r="G162" t="s">
+      <c r="F162" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6222,19 +6430,22 @@
       <c r="A163" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="3">
         <v>2</v>
       </c>
-      <c r="G163" t="s">
+      <c r="F163" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6242,19 +6453,22 @@
       <c r="A164" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="3">
         <v>3</v>
       </c>
-      <c r="G164" t="s">
+      <c r="F164" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6262,19 +6476,22 @@
       <c r="A165" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="3">
         <v>4</v>
       </c>
-      <c r="G165" t="s">
+      <c r="F165" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6282,19 +6499,22 @@
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E166">
-        <v>5</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="E166" s="3">
+        <v>5</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6302,19 +6522,22 @@
       <c r="A167" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E167">
-        <v>6</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="E167" s="3">
+        <v>6</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6322,19 +6545,22 @@
       <c r="A168" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E168">
-        <v>7</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="E168" s="3">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6342,19 +6568,22 @@
       <c r="A169" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="3">
         <v>8</v>
       </c>
-      <c r="G169" t="s">
+      <c r="F169" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6362,19 +6591,22 @@
       <c r="A170" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="3">
         <v>9</v>
       </c>
-      <c r="G170" t="s">
+      <c r="F170" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6382,1138 +6614,1404 @@
       <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B171" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="3">
         <v>10</v>
       </c>
+      <c r="F171" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="3">
         <v>11</v>
       </c>
+      <c r="F172" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="3">
         <v>12</v>
       </c>
+      <c r="F173" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="3">
         <v>13</v>
       </c>
+      <c r="F174" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G174" s="3"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="3">
         <v>14</v>
       </c>
+      <c r="F175" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G175" s="3"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B187" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B189" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="B190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="B191" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="B192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B193" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="B193" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B194" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="B194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B195" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="B195" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B196" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="B196" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B197" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="B197" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B198" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="B198" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="3">
+        <v>5</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B199" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="B199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E199">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="3">
+        <v>6</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B200" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="B200" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E200">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="3">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="B201" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G201" s="3"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B202" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="B202" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B203" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="B203" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B204" t="s">
-        <v>6</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="B204" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B205" t="s">
-        <v>6</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="B205" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B206" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="B206" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B207" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="B207" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B208" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="B208" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G208" s="3"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B209" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="B209" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B210" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="B210" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B211" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="B211" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G211" s="3"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B212" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="B212" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G212" s="3"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B213" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="B213" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B214" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214" t="s">
+      <c r="B214" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B215" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="B215" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G215" s="3"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B216" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" t="s">
+      <c r="B216" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B217" t="s">
-        <v>6</v>
-      </c>
-      <c r="C217" t="s">
+      <c r="B217" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B218" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" t="s">
+      <c r="B218" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G218" s="3"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B219" t="s">
-        <v>6</v>
-      </c>
-      <c r="C219" t="s">
+      <c r="B219" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B220" t="s">
-        <v>6</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="B220" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G220" s="3"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B221" t="s">
-        <v>6</v>
-      </c>
-      <c r="C221" t="s">
+      <c r="B221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B222" t="s">
-        <v>6</v>
-      </c>
-      <c r="C222" t="s">
+      <c r="B222" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B223" t="s">
-        <v>6</v>
-      </c>
-      <c r="C223" t="s">
+      <c r="B223" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G223" s="3"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B224" t="s">
-        <v>6</v>
-      </c>
-      <c r="C224" t="s">
+      <c r="B224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="3">
         <v>31</v>
       </c>
+      <c r="F224" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G224" s="3"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
+      <c r="B225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="3">
         <v>0</v>
       </c>
+      <c r="F225" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G225" s="3"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="B226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="3">
         <v>1</v>
       </c>
+      <c r="F226" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G226" s="3"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="B227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="3">
         <v>2</v>
       </c>
+      <c r="F227" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G227" s="3"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="B228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="3">
         <v>3</v>
       </c>
+      <c r="F228" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G228" s="3"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B229" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="B229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="3">
         <v>4</v>
       </c>
+      <c r="F229" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G229" s="3"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B230" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="B230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E230">
-        <v>5</v>
-      </c>
+      <c r="E230" s="3">
+        <v>5</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G230" s="3"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" t="s">
+      <c r="B231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E231">
-        <v>6</v>
-      </c>
+      <c r="E231" s="3">
+        <v>6</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G231" s="3"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232" t="s">
+      <c r="B232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E232">
-        <v>7</v>
-      </c>
+      <c r="E232" s="3">
+        <v>7</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G232" s="3"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="B233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="3">
         <v>8</v>
       </c>
+      <c r="F233" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G233" s="3"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="B234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="3">
         <v>9</v>
       </c>
+      <c r="F234" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G234" s="3"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B235" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" t="s">
+      <c r="B235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="3">
         <v>10</v>
       </c>
+      <c r="F235" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G235" s="3"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B236" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" t="s">
+      <c r="B236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="3">
         <v>11</v>
       </c>
+      <c r="F236" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G236" s="3"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B237" t="s">
-        <v>5</v>
-      </c>
-      <c r="C237" t="s">
+      <c r="B237" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G237" t="s">
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7521,47 +8019,54 @@
       <c r="A238" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B238" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" t="s">
+      <c r="B238" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B239" t="s">
-        <v>7</v>
-      </c>
-      <c r="C239" t="s">
+      <c r="B239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B240" t="s">
-        <v>5</v>
-      </c>
-      <c r="C240" t="s">
+      <c r="B240" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F240" t="s">
-        <v>313</v>
-      </c>
-      <c r="G240" t="s">
+      <c r="E240" s="3"/>
+      <c r="F240" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G240" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7569,101 +8074,113 @@
       <c r="A241" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="B241" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F241" t="s">
-        <v>313</v>
-      </c>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G241" s="3"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B242" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="B242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F242" t="s">
-        <v>313</v>
-      </c>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G242" s="3"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B243" t="s">
-        <v>6</v>
-      </c>
-      <c r="C243" t="s">
+      <c r="B243" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F243" t="s">
-        <v>313</v>
-      </c>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G243" s="3"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B244" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="B244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F244" t="s">
-        <v>313</v>
-      </c>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G244" s="3"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B245" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="B245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F245" t="s">
-        <v>313</v>
-      </c>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G245" s="3"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B246" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="B246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G246" t="s">
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7671,44 +8188,54 @@
       <c r="A247" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B247" t="s">
-        <v>6</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="B247" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="B248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B249" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="B249" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G249" t="s">
+      <c r="E249" s="3"/>
+      <c r="F249" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G249" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7716,44 +8243,56 @@
       <c r="A250" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B250" t="s">
-        <v>6</v>
-      </c>
-      <c r="C250" t="s">
+      <c r="B250" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G250" s="3"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B251" t="s">
-        <v>7</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="B251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G251" s="3"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B252" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="B252" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G252" t="s">
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7761,47 +8300,54 @@
       <c r="A253" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B253" t="s">
-        <v>6</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="B253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B254" t="s">
-        <v>7</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="B254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B255" t="s">
-        <v>5</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="B255" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E255" s="3"/>
+      <c r="F255" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7809,89 +8355,105 @@
       <c r="A256" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B256" t="s">
-        <v>5</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="B256" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F256" t="s">
+      <c r="E256" s="3"/>
+      <c r="F256" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G256" s="3"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B257" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="B257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B258" t="s">
-        <v>6</v>
-      </c>
-      <c r="C258" t="s">
+      <c r="B258" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B259" t="s">
-        <v>6</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="B259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B260" t="s">
-        <v>7</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="B260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B261" t="s">
-        <v>5</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="B261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G261" t="s">
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7899,58 +8461,69 @@
       <c r="A262" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B262" t="s">
-        <v>5</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="B262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B263" t="s">
-        <v>6</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="B263" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B264" t="s">
-        <v>7</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="B264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B265" t="s">
-        <v>5</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="B265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G265" t="s">
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7958,109 +8531,126 @@
       <c r="A266" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B266" t="s">
-        <v>5</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="B266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B267" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="B267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B268" t="s">
-        <v>6</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="B268" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F268" t="s">
+      <c r="E268" s="3"/>
+      <c r="F268" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G268" s="3"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B269" t="s">
-        <v>6</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="B269" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F269" t="s">
+      <c r="E269" s="3"/>
+      <c r="F269" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G269" s="3"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B270" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" t="s">
+      <c r="B270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B271" t="s">
-        <v>7</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="B271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B272" t="s">
-        <v>5</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="B272" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F272" t="s">
+      <c r="E272" s="3"/>
+      <c r="F272" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8068,200 +8658,225 @@
       <c r="A273" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B273" t="s">
-        <v>5</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="B273" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F273" t="s">
+      <c r="E273" s="3"/>
+      <c r="F273" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G273" s="3"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="B274" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F274" t="s">
+      <c r="E274" s="3"/>
+      <c r="F274" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G274" s="3"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B275" t="s">
-        <v>6</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="B275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F275" t="s">
+      <c r="E275" s="3"/>
+      <c r="F275" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G275" s="3"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B276" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="B276" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F276" t="s">
+      <c r="E276" s="3"/>
+      <c r="F276" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G276" s="3"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B277" t="s">
-        <v>6</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="B277" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F277" t="s">
+      <c r="E277" s="3"/>
+      <c r="F277" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G277" s="3"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B278" t="s">
-        <v>6</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="B278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F278" t="s">
+      <c r="E278" s="3"/>
+      <c r="F278" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G278" s="3"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B279" t="s">
-        <v>7</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="B279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F279" t="s">
+      <c r="E279" s="3"/>
+      <c r="F279" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G279" s="3"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B280" t="s">
-        <v>7</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="B280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F280" t="s">
+      <c r="E280" s="3"/>
+      <c r="F280" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G280" s="3"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B281" t="s">
-        <v>5</v>
-      </c>
-      <c r="C281" t="s">
+      <c r="B281" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G281" t="s">
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B282" t="s">
-        <v>6</v>
-      </c>
-      <c r="C282" t="s">
+      <c r="B282" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B283" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" t="s">
+      <c r="B283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B284" t="s">
-        <v>5</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="B284" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F284" t="s">
+      <c r="E284" s="3"/>
+      <c r="F284" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8269,146 +8884,166 @@
       <c r="A285" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B285" t="s">
-        <v>5</v>
-      </c>
-      <c r="C285" t="s">
+      <c r="B285" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F285" t="s">
+      <c r="E285" s="3"/>
+      <c r="F285" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G285" s="3"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B286" t="s">
-        <v>6</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="B286" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F286" t="s">
+      <c r="E286" s="3"/>
+      <c r="F286" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G286" s="3"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B287" t="s">
-        <v>6</v>
-      </c>
-      <c r="C287" t="s">
+      <c r="B287" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F287" t="s">
+      <c r="E287" s="3"/>
+      <c r="F287" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G287" s="3"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="B288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F288" t="s">
+      <c r="E288" s="3"/>
+      <c r="F288" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G288" s="3"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B289" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" t="s">
+      <c r="B289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F289" t="s">
+      <c r="E289" s="3"/>
+      <c r="F289" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G289" s="3"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" t="s">
+      <c r="B290" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G290" t="s">
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B291" t="s">
-        <v>6</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="B291" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B292" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="B292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B293" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G293" t="s">
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8416,89 +9051,105 @@
       <c r="A294" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B294" t="s">
-        <v>6</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="B294" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B295" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" t="s">
+      <c r="B295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="B296" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G296" t="s">
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B297" t="s">
-        <v>6</v>
-      </c>
-      <c r="C297" t="s">
+      <c r="B297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B298" t="s">
-        <v>7</v>
-      </c>
-      <c r="C298" t="s">
+      <c r="B298" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B299" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" t="s">
+      <c r="B299" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G299" t="s">
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8506,174 +9157,200 @@
       <c r="A300" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-      <c r="C300" t="s">
+      <c r="B300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B301" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="B301" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B302" t="s">
-        <v>6</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="B302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B303" t="s">
-        <v>7</v>
-      </c>
-      <c r="C303" t="s">
+      <c r="B303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" t="s">
+      <c r="B304" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F304" t="s">
+      <c r="E304" s="3"/>
+      <c r="F304" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G304" s="3"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" t="s">
+      <c r="B305" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F305" t="s">
+      <c r="E305" s="3"/>
+      <c r="F305" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G305" s="3"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B306" t="s">
-        <v>6</v>
-      </c>
-      <c r="C306" t="s">
+      <c r="B306" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F306" t="s">
+      <c r="E306" s="3"/>
+      <c r="F306" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G306" s="3"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B307" t="s">
-        <v>6</v>
-      </c>
-      <c r="C307" t="s">
+      <c r="B307" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F307" t="s">
+      <c r="E307" s="3"/>
+      <c r="F307" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G307" s="3"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B308" t="s">
-        <v>7</v>
-      </c>
-      <c r="C308" t="s">
+      <c r="B308" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F308" t="s">
+      <c r="E308" s="3"/>
+      <c r="F308" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G308" s="3"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B309" t="s">
-        <v>7</v>
-      </c>
-      <c r="C309" t="s">
+      <c r="B309" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F309" t="s">
+      <c r="E309" s="3"/>
+      <c r="F309" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G309" s="3"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B310" t="s">
-        <v>5</v>
-      </c>
-      <c r="C310" t="s">
+      <c r="B310" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G310" t="s">
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8681,44 +9358,52 @@
       <c r="A311" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B311" t="s">
-        <v>6</v>
-      </c>
-      <c r="C311" t="s">
+      <c r="B311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B312" t="s">
-        <v>7</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="B312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" t="s">
+      <c r="B313" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G313" t="s">
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8726,47 +9411,54 @@
       <c r="A314" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B314" t="s">
-        <v>6</v>
-      </c>
-      <c r="C314" t="s">
+      <c r="B314" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B315" t="s">
-        <v>7</v>
-      </c>
-      <c r="C315" t="s">
+      <c r="B315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B316" t="s">
-        <v>5</v>
-      </c>
-      <c r="C316" t="s">
+      <c r="B316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F316" t="s">
+      <c r="E316" s="3"/>
+      <c r="F316" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8774,35 +9466,39 @@
       <c r="A317" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B317" t="s">
-        <v>6</v>
-      </c>
-      <c r="C317" t="s">
+      <c r="B317" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F317" t="s">
+      <c r="E317" s="3"/>
+      <c r="F317" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G317" s="3"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B318" t="s">
-        <v>7</v>
-      </c>
-      <c r="C318" t="s">
+      <c r="B318" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F318" t="s">
+      <c r="E318" s="3"/>
+      <c r="F318" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="G318" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mapping/Register and Signal Mapping.xlsx
+++ b/Mapping/Register and Signal Mapping.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Work\Programming\Ada\System Checks\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\THFP2\user\Simon.Crowther\Documents\Git\ADLAS_Ada_System\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="15315" windowHeight="10290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="15315" windowHeight="10290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="5" r:id="rId1"/>
     <sheet name="Signals" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1522,7 +1522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1596,7 +1596,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1687,23 +1687,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1739,23 +1722,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1931,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3030,11 +2996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B575E61D-8039-463C-8588-67CBC96687A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249:F251"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
